--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -612,14 +612,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -628,12 +628,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -657,9 +651,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,31 +673,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,16 +687,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,14 +705,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,11 +733,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,8 +749,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,8 +764,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,13 +809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,37 +833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,13 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,19 +947,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,31 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,13 +1003,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,47 +1036,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,20 +1065,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,131 +1123,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,7 +1264,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1309,40 +1303,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1666,7 +1660,7 @@
   <sheetPr/>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2014,8 +2008,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
@@ -2247,7 +2241,7 @@
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="N1" sqref="N$1:O$1048576"/>
     </sheetView>
   </sheetViews>

--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -212,6 +212,44 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/624541742721851/</t>
   </si>
   <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>南投埔里</t>
+  </si>
+  <si>
+    <t>台中市北屯區</t>
+  </si>
+  <si>
+    <r>
+      <t>停放在樹蔭下，車頂接觸到樹枝，引擎蓋無鳥屎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>落果</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/635946351581390/</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
@@ -581,9 +619,6 @@
   </si>
   <si>
     <t>回台中市沙鹿區福成路</t>
-  </si>
-  <si>
-    <t>15:00</t>
   </si>
   <si>
     <t>花蓮富里鄉</t>
@@ -612,12 +647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -651,16 +686,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,21 +708,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +724,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,10 +745,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,16 +807,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,21 +817,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,7 +844,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,13 +886,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,49 +988,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,103 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,6 +1035,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1014,21 +1075,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,17 +1112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1105,15 +1140,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,135 +1158,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,7 +1302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1282,22 +1317,22 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1315,7 +1350,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1324,7 +1359,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1337,6 +1372,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1660,8 +1698,8 @@
   <sheetPr/>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="5"/>
@@ -1987,8 +2025,64 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="11:11">
-      <c r="K6" s="22"/>
+    <row r="6" spans="1:19">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>20230702</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="21">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="22">
+        <v>120.97646</v>
+      </c>
+      <c r="L6" s="6">
+        <v>23.94475</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="6">
+        <v>120.682886435026</v>
+      </c>
+      <c r="O6" s="6">
+        <v>24.1842020704196</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1996,6 +2090,7 @@
     <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
     <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
     <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
+    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2008,7 +2103,7 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2020,10 +2115,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2031,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2039,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2047,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2055,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2063,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2071,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2079,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2087,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2095,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -2104,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -2113,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -2122,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2130,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -2139,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2147,7 +2242,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2155,7 +2250,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2163,7 +2258,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2171,7 +2266,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2179,7 +2274,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2192,42 +2287,42 @@
     </row>
     <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="35" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="35" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="35" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2241,8 +2336,8 @@
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N1" sqref="N$1:O$1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2279,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -2338,10 +2433,10 @@
         <v>42960</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -2356,10 +2451,10 @@
         <v>24</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
@@ -2368,7 +2463,7 @@
         <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
@@ -2377,19 +2472,19 @@
         <v>22.6744337598374</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2400,10 +2495,10 @@
         <v>43733</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2415,13 +2510,13 @@
         <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
@@ -2430,28 +2525,28 @@
         <v>24.7781010661178</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2462,16 +2557,16 @@
         <v>43929</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -2480,10 +2575,10 @@
         <v>24</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
@@ -2492,13 +2587,13 @@
         <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>45</v>
@@ -2507,13 +2602,13 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:20">
@@ -2524,16 +2619,16 @@
         <v>44079</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -2542,10 +2637,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K5" s="11">
         <v>121.618935</v>
@@ -2554,28 +2649,28 @@
         <v>25.044103</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:20">
@@ -2586,10 +2681,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -2604,10 +2699,10 @@
         <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
@@ -2616,28 +2711,28 @@
         <v>21.9657797250651</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:20">
@@ -2648,28 +2743,28 @@
         <v>44178</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K7" s="11">
         <v>120.603</v>
@@ -2678,28 +2773,28 @@
         <v>22.64866667</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:20">
@@ -2710,10 +2805,10 @@
         <v>44105</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2728,10 +2823,10 @@
         <v>24</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K8" s="11">
         <v>120.68601108018</v>
@@ -2740,28 +2835,28 @@
         <v>23.75684947021</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:20">
@@ -2772,10 +2867,10 @@
         <v>43983</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -2787,13 +2882,13 @@
         <v>23</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
@@ -2802,28 +2897,28 @@
         <v>23.9496602216195</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2834,10 +2929,10 @@
         <v>44044</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -2852,10 +2947,10 @@
         <v>24</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
@@ -2864,7 +2959,7 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
@@ -2873,19 +2968,19 @@
         <v>22.6744337598374</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:20">
@@ -2896,16 +2991,16 @@
         <v>44287</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -2914,10 +3009,10 @@
         <v>24</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K11" s="11">
         <v>121.259460451407</v>
@@ -2926,28 +3021,28 @@
         <v>25.0180892884336</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:20">
@@ -2958,16 +3053,16 @@
         <v>44319</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -2976,10 +3071,10 @@
         <v>24</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
@@ -2988,28 +3083,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3020,16 +3115,16 @@
         <v>44327</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>23</v>
@@ -3038,10 +3133,10 @@
         <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
@@ -3050,28 +3145,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3082,10 +3177,10 @@
         <v>44341</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -3100,10 +3195,10 @@
         <v>24</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
@@ -3112,28 +3207,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3144,10 +3239,10 @@
         <v>44355</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -3162,10 +3257,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
@@ -3174,28 +3269,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:20">
@@ -3206,16 +3301,16 @@
         <v>44363</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -3224,10 +3319,10 @@
         <v>24</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
@@ -3236,28 +3331,28 @@
         <v>22.8011983846292</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:20">
@@ -3268,10 +3363,10 @@
         <v>44376</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3286,10 +3381,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
@@ -3298,28 +3393,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:20">
@@ -3330,28 +3425,28 @@
         <v>44381</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
@@ -3360,28 +3455,28 @@
         <v>24.57430556</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3392,16 +3487,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3410,10 +3505,10 @@
         <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
@@ -3422,28 +3517,28 @@
         <v>24.274</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:20">
@@ -3454,28 +3549,28 @@
         <v>44403</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
@@ -3484,28 +3579,28 @@
         <v>24.9447845618742</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:20">
@@ -3516,10 +3611,10 @@
         <v>44408</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -3534,10 +3629,10 @@
         <v>24</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -3546,28 +3641,28 @@
         <v>24.1144923218312</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3578,10 +3673,10 @@
         <v>44409</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -3596,10 +3691,10 @@
         <v>24</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
@@ -3608,28 +3703,28 @@
         <v>23.8649864324543</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3640,10 +3735,10 @@
         <v>44410</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>21</v>
@@ -3658,10 +3753,10 @@
         <v>24</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K23" s="11">
         <v>120.681643451365</v>
@@ -3670,28 +3765,28 @@
         <v>24.1933684218396</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3702,28 +3797,28 @@
         <v>44412</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
@@ -3732,28 +3827,28 @@
         <v>25.1458353609832</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:20">
@@ -3764,16 +3859,16 @@
         <v>44417</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -3782,10 +3877,10 @@
         <v>24</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
@@ -3794,28 +3889,28 @@
         <v>22.1334697411457</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:20">
@@ -3826,10 +3921,10 @@
         <v>44426</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -3847,7 +3942,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
@@ -3856,28 +3951,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:20">
@@ -3888,16 +3983,16 @@
         <v>44449</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -3906,10 +4001,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -3918,28 +4013,28 @@
         <v>25.0369650741737</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:20">
@@ -3950,16 +4045,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -3968,10 +4063,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -3980,28 +4075,28 @@
         <v>23.6763958475496</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:20">
@@ -4012,10 +4107,10 @@
         <v>44481</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4033,7 +4128,7 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
@@ -4042,28 +4137,28 @@
         <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:20">
@@ -4074,10 +4169,10 @@
         <v>44500</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4092,10 +4187,10 @@
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
@@ -4104,28 +4199,28 @@
         <v>23.9645079741834</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:20">
@@ -4136,28 +4231,28 @@
         <v>44501</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K31" s="11">
         <v>120.47220016482</v>
@@ -4166,28 +4261,28 @@
         <v>23.4778160137451</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4198,10 +4293,10 @@
         <v>44650</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4216,10 +4311,10 @@
         <v>24</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
@@ -4228,28 +4323,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4260,16 +4355,16 @@
         <v>44660</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4281,7 +4376,7 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K33" s="11">
         <v>121.675840396747</v>
@@ -4290,28 +4385,28 @@
         <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4322,28 +4417,28 @@
         <v>44668</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
@@ -4352,28 +4447,28 @@
         <v>25.0347553435176</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4384,16 +4479,16 @@
         <v>44704</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -4402,10 +4497,10 @@
         <v>24</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
@@ -4414,28 +4509,28 @@
         <v>24.7204842189591</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4446,10 +4541,10 @@
         <v>44710</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -4467,7 +4562,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
@@ -4476,28 +4571,28 @@
         <v>23.831319911496</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4508,10 +4603,10 @@
         <v>44717</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -4529,7 +4624,7 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
@@ -4538,28 +4633,28 @@
         <v>24.091411</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4570,10 +4665,10 @@
         <v>44728</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -4591,7 +4686,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -4600,28 +4695,28 @@
         <v>24.0111966910804</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4632,10 +4727,10 @@
         <v>44728</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -4650,10 +4745,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K39" s="11">
         <v>121.006319901755</v>
@@ -4662,28 +4757,28 @@
         <v>23.9781408122414</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4694,10 +4789,10 @@
         <v>44777</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -4715,7 +4810,7 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
@@ -4724,28 +4819,28 @@
         <v>23.100578</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4756,10 +4851,10 @@
         <v>44787</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -4777,7 +4872,7 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
@@ -4786,28 +4881,28 @@
         <v>24.0866315</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -4818,16 +4913,16 @@
         <v>44787</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -4836,10 +4931,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
@@ -4848,28 +4943,28 @@
         <v>24.1925474230372</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
     <sheet name="Data_not_from_FB_group" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -641,20 +641,31 @@
   <si>
     <t>藍色，停路邊和地下室</t>
   </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，車頂接觸到樹枝，數種為構樹</t>
+  </si>
+  <si>
+    <t>芬園鄉員草路</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/639354851240540/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="8">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -693,143 +704,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,194 +730,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1037,263 +739,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1302,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1311,34 +774,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1350,7 +813,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1359,7 +822,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1371,64 +834,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1690,40 +1113,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.725" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.45625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.0875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.63125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.0875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" style="6" customWidth="1"/>
     <col min="10" max="10" width="26.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.45625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.26875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.18125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" style="6" customWidth="1"/>
     <col min="14" max="14" width="14.90625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.3625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.45625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.0875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="77.81875" style="22" customWidth="1"/>
-    <col min="19" max="19" width="67.63125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.725" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="77.81640625" style="22" customWidth="1"/>
+    <col min="19" max="19" width="67.6328125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.7265625" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1789,7 +1212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20" ht="18.75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1821,10 +1244,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.991599</v>
+        <v>120.99159899999999</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686784</v>
+        <v>22.686783999999999</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>27</v>
@@ -1833,7 +1256,7 @@
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.6887400162283</v>
+        <v>24.688740016228301</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1848,7 +1271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20" ht="18.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1880,7 +1303,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.795442</v>
+        <v>120.79544199999999</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -1907,7 +1330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20" ht="18.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1939,10 +1362,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804</v>
+        <v>120.55804000000001</v>
       </c>
       <c r="L4" s="6">
-        <v>24.06537</v>
+        <v>24.065370000000001</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
@@ -1966,7 +1389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20" ht="18.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2001,7 +1424,7 @@
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188</v>
+        <v>24.052188000000001</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>44</v>
@@ -2025,7 +1448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" ht="18.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2060,16 +1483,16 @@
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.94475</v>
+        <v>23.944749999999999</v>
       </c>
       <c r="M6" s="26" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.682886435026</v>
+        <v>120.68288643502601</v>
       </c>
       <c r="O6" s="6">
-        <v>24.1842020704196</v>
+        <v>24.184202070419602</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -2084,36 +1507,85 @@
         <v>53</v>
       </c>
     </row>
+    <row r="7" spans="1:20" ht="18.75">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20230704</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="21">
+        <v>120</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="6">
+        <v>120.952707</v>
+      </c>
+      <c r="L7" s="6">
+        <v>23.969025999999999</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="N7" s="6">
+        <v>120.610146611658</v>
+      </c>
+      <c r="O7" s="6">
+        <v>23.970978461405601</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
-    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
-    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
-    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
-    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5"/>
+    <hyperlink ref="S7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.45625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="79.0875" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
@@ -2121,7 +1593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +1601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +1609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +1617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2153,7 +1625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +1633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +1641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +1649,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2212,7 +1684,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2229,7 +1701,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +1709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +1757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="87.5" spans="1:2">
+    <row r="22" spans="1:2" ht="90">
       <c r="A22" s="18" t="s">
         <v>75</v>
       </c>
@@ -2293,7 +1765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" ht="122.5" spans="1:2">
+    <row r="23" spans="1:2" ht="126">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
@@ -2301,7 +1773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" ht="35" spans="1:2">
+    <row r="24" spans="1:2" ht="36">
       <c r="A24" s="18" t="s">
         <v>79</v>
       </c>
@@ -2309,7 +1781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:2">
+    <row r="25" spans="1:2" ht="36">
       <c r="A25" s="18" t="s">
         <v>81</v>
       </c>
@@ -2317,7 +1789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" ht="35" spans="1:2">
+    <row r="26" spans="1:2" ht="36">
       <c r="A26" s="18" t="s">
         <v>83</v>
       </c>
@@ -2327,40 +1799,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.45625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.26875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.0875" customWidth="1"/>
-    <col min="5" max="5" width="17.0875" customWidth="1"/>
-    <col min="6" max="6" width="25.45625" customWidth="1"/>
-    <col min="7" max="7" width="14.63125" customWidth="1"/>
-    <col min="8" max="8" width="14.45625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="13.90625" customWidth="1"/>
     <col min="10" max="10" width="42" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.81875" customWidth="1"/>
-    <col min="12" max="12" width="16.63125" customWidth="1"/>
-    <col min="13" max="13" width="11.0875" customWidth="1"/>
-    <col min="14" max="14" width="15.3625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.63125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="5" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="13.63125" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" customWidth="1"/>
     <col min="18" max="18" width="77.90625" customWidth="1"/>
-    <col min="19" max="19" width="8.81875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.81875" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2460,7 +1930,7 @@
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.9147099644175</v>
+        <v>23.914709964417501</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>89</v>
@@ -2469,7 +1939,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.6744337598374</v>
+        <v>22.674433759837399</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>86</v>
@@ -2522,7 +1992,7 @@
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.7781010661178</v>
+        <v>24.778101066117799</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>86</v>
@@ -2584,7 +2054,7 @@
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.0929920370014</v>
+        <v>24.092992037001402</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>86</v>
@@ -2611,7 +2081,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    <row r="5" spans="1:20" s="1" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2643,7 +2113,7 @@
         <v>104</v>
       </c>
       <c r="K5" s="11">
-        <v>121.618935</v>
+        <v>121.61893499999999</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
@@ -2673,7 +2143,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:20">
+    <row r="6" spans="1:20" s="1" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2708,7 +2178,7 @@
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.9657797250651</v>
+        <v>21.965779725065101</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>86</v>
@@ -2735,7 +2205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:20">
+    <row r="7" spans="1:20" s="1" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2767,10 +2237,10 @@
         <v>113</v>
       </c>
       <c r="K7" s="11">
-        <v>120.603</v>
+        <v>120.60299999999999</v>
       </c>
       <c r="L7" s="11">
-        <v>22.64866667</v>
+        <v>22.648666670000001</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>86</v>
@@ -2797,7 +2267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:20">
+    <row r="8" spans="1:20" s="1" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2829,7 +2299,7 @@
         <v>115</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108018</v>
+        <v>120.68601108017999</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
@@ -2859,7 +2329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:20">
+    <row r="9" spans="1:20" s="1" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2894,7 +2364,7 @@
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.9496602216195</v>
+        <v>23.949660221619499</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>86</v>
@@ -2956,7 +2426,7 @@
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.8354244334485</v>
+        <v>23.835424433448502</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>89</v>
@@ -2965,7 +2435,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O10" s="15">
-        <v>22.6744337598374</v>
+        <v>22.674433759837399</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>86</v>
@@ -2983,7 +2453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:20">
+    <row r="11" spans="1:20" s="1" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3015,7 +2485,7 @@
         <v>119</v>
       </c>
       <c r="K11" s="11">
-        <v>121.259460451407</v>
+        <v>121.25946045140699</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
@@ -3045,7 +2515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:20">
+    <row r="12" spans="1:20" s="1" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3080,7 +2550,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>86</v>
@@ -3142,7 +2612,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>86</v>
@@ -3204,7 +2674,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>86</v>
@@ -3266,7 +2736,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>86</v>
@@ -3293,7 +2763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:20">
+    <row r="16" spans="1:20" s="1" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3328,7 +2798,7 @@
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.8011983846292</v>
+        <v>22.801198384629199</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>86</v>
@@ -3355,7 +2825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:20">
+    <row r="17" spans="1:20" s="1" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3390,7 +2860,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>86</v>
@@ -3417,7 +2887,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:20">
+    <row r="18" spans="1:20" s="1" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3452,7 +2922,7 @@
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.57430556</v>
+        <v>24.574305559999999</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>86</v>
@@ -3514,7 +2984,7 @@
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274</v>
+        <v>24.274000000000001</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>86</v>
@@ -3541,7 +3011,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:20">
+    <row r="20" spans="1:20" s="1" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3576,7 +3046,7 @@
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.9447845618742</v>
+        <v>24.944784561874201</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>86</v>
@@ -3603,7 +3073,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:20">
+    <row r="21" spans="1:20" s="1" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3700,7 +3170,7 @@
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.8649864324543</v>
+        <v>23.864986432454302</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>86</v>
@@ -3759,10 +3229,10 @@
         <v>144</v>
       </c>
       <c r="K23" s="11">
-        <v>120.681643451365</v>
+        <v>120.68164345136501</v>
       </c>
       <c r="L23" s="11">
-        <v>24.1933684218396</v>
+        <v>24.193368421839601</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>86</v>
@@ -3824,7 +3294,7 @@
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.1458353609832</v>
+        <v>25.145835360983199</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>86</v>
@@ -3851,7 +3321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:20">
+    <row r="25" spans="1:20" s="1" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3886,7 +3356,7 @@
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.1334697411457</v>
+        <v>22.133469741145699</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>86</v>
@@ -3913,7 +3383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:20">
+    <row r="26" spans="1:20" s="1" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3948,7 +3418,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>86</v>
@@ -3975,7 +3445,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:20">
+    <row r="27" spans="1:20" s="1" customFormat="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4037,7 +3507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:20">
+    <row r="28" spans="1:20" s="1" customFormat="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4099,7 +3569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:20">
+    <row r="29" spans="1:20" s="1" customFormat="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4134,7 +3604,7 @@
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.08061169164</v>
+        <v>25.080611691640001</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>86</v>
@@ -4161,7 +3631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:20">
+    <row r="30" spans="1:20" s="1" customFormat="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4196,7 +3666,7 @@
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.9645079741834</v>
+        <v>23.964507974183402</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>86</v>
@@ -4223,7 +3693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:20">
+    <row r="31" spans="1:20" s="1" customFormat="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4255,10 +3725,10 @@
         <v>155</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016482</v>
+        <v>120.47220016481999</v>
       </c>
       <c r="L31" s="11">
-        <v>23.4778160137451</v>
+        <v>23.477816013745102</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>86</v>
@@ -4320,7 +3790,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>86</v>
@@ -4379,10 +3849,10 @@
         <v>160</v>
       </c>
       <c r="K33" s="11">
-        <v>121.675840396747</v>
+        <v>121.67584039674701</v>
       </c>
       <c r="L33" s="11">
-        <v>24.5908046853466</v>
+        <v>24.590804685346601</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>86</v>
@@ -4444,7 +3914,7 @@
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.0347553435176</v>
+        <v>25.034755343517599</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>86</v>
@@ -4506,7 +3976,7 @@
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.7204842189591</v>
+        <v>24.720484218959101</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>86</v>
@@ -4568,7 +4038,7 @@
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911496</v>
+        <v>23.831319911495999</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>86</v>
@@ -4630,7 +4100,7 @@
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411</v>
+        <v>24.091411000000001</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>86</v>
@@ -4751,10 +4221,10 @@
         <v>174</v>
       </c>
       <c r="K39" s="11">
-        <v>121.006319901755</v>
+        <v>121.00631990175501</v>
       </c>
       <c r="L39" s="11">
-        <v>23.9781408122414</v>
+        <v>23.978140812241399</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>86</v>
@@ -4816,7 +4286,7 @@
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100578</v>
+        <v>23.100577999999999</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>86</v>
@@ -4878,7 +4348,7 @@
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.0866315</v>
+        <v>24.086631499999999</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>86</v>
@@ -4940,7 +4410,7 @@
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.1925474230372</v>
+        <v>24.192547423037201</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>86</v>
@@ -4970,6 +4440,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
+    <workbookView windowWidth="18530" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
     <sheet name="Data_not_from_FB_group" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>停放在樹蔭下，車頂接觸到樹枝，引擎蓋無鳥屎</t>
     </r>
     <r>
@@ -250,6 +256,21 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/635946351581390/</t>
   </si>
   <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>芬園鄉員草路</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，車頂接觸到樹枝，數種為構樹</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/639354851240540/</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
@@ -640,32 +661,21 @@
   </si>
   <si>
     <t>藍色，停路邊和地下室</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>停放在樹蔭下，車頂接觸到樹枝，數種為構樹</t>
-  </si>
-  <si>
-    <t>芬園鄉員草路</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/639354851240540/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="167" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="26">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -697,6 +707,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
@@ -704,20 +720,150 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,8 +876,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -739,14 +1071,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
@@ -756,7 +1327,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -765,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -774,34 +1345,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,7 +1384,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -822,7 +1393,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -831,27 +1402,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1113,40 +1730,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.725" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.45625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.0875" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.63125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.0875" style="6" customWidth="1"/>
     <col min="10" max="10" width="26.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.1796875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.45625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.26875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="25.18125" style="6" customWidth="1"/>
     <col min="14" max="14" width="14.90625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="77.81640625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="67.6328125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.7265625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.3625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.45625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.0875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="77.81875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="67.63125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.725" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1202,7 +1819,7 @@
       <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="28" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="16" t="s">
@@ -1212,7 +1829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75">
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1244,10 +1861,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.99159899999999</v>
+        <v>120.991599</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686783999999999</v>
+        <v>22.686784</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>27</v>
@@ -1256,7 +1873,7 @@
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.688740016228301</v>
+        <v>24.6887400162283</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1267,11 +1884,11 @@
       <c r="R2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:19">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1303,7 +1920,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.79544199999999</v>
+        <v>120.795442</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -1326,11 +1943,11 @@
       <c r="R3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18.75">
+    <row r="4" spans="1:19">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1362,10 +1979,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804000000001</v>
+        <v>120.55804</v>
       </c>
       <c r="L4" s="6">
-        <v>24.065370000000001</v>
+        <v>24.06537</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
@@ -1385,11 +2002,11 @@
       <c r="R4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.75">
+    <row r="5" spans="1:19">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1424,7 +2041,7 @@
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188000000001</v>
+        <v>24.052188</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>44</v>
@@ -1444,11 +2061,11 @@
       <c r="R5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18.75">
+    <row r="6" spans="1:19">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1483,16 +2100,16 @@
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.944749999999999</v>
+        <v>23.94475</v>
       </c>
       <c r="M6" s="26" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.68288643502601</v>
+        <v>120.682886435026</v>
       </c>
       <c r="O6" s="6">
-        <v>24.184202070419602</v>
+        <v>24.1842020704196</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -1503,11 +2120,11 @@
       <c r="R6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18.75">
+    <row r="7" spans="1:19">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1515,16 +2132,25 @@
         <v>20230704</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="D7" s="21">
         <v>120</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>50</v>
@@ -1533,16 +2159,16 @@
         <v>120.952707</v>
       </c>
       <c r="L7" s="6">
-        <v>23.969025999999999</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>186</v>
+        <v>23.969026</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="N7" s="6">
         <v>120.610146611658</v>
       </c>
       <c r="O7" s="6">
-        <v>23.970978461405601</v>
+        <v>23.9709784614056</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>45</v>
@@ -1551,110 +2177,112 @@
         <v>29</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
-    <hyperlink ref="S6" r:id="rId5"/>
-    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
+    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
+    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
+    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
+    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
+    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="79.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.45625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.0875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1662,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -1671,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -1680,16 +2308,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1697,24 +2325,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1722,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1730,7 +2358,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1738,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1746,7 +2374,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1757,80 +2385,82 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90">
+    <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="126">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" ht="35" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" ht="35" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="36">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" ht="35" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.45625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.26875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.0875" customWidth="1"/>
+    <col min="5" max="5" width="17.0875" customWidth="1"/>
+    <col min="6" max="6" width="25.45625" customWidth="1"/>
+    <col min="7" max="7" width="14.63125" customWidth="1"/>
+    <col min="8" max="8" width="14.45625" customWidth="1"/>
     <col min="9" max="9" width="13.90625" customWidth="1"/>
     <col min="10" max="10" width="42" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.81875" customWidth="1"/>
+    <col min="12" max="12" width="16.63125" customWidth="1"/>
+    <col min="13" max="13" width="11.0875" customWidth="1"/>
+    <col min="14" max="14" width="15.3625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.63125" style="5" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="13.63125" customWidth="1"/>
     <col min="18" max="18" width="77.90625" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.81640625" customWidth="1"/>
+    <col min="19" max="19" width="8.81875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.81875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1844,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -1903,10 +2533,10 @@
         <v>42960</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -1921,40 +2551,40 @@
         <v>24</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.914709964417501</v>
+        <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.674433759837399</v>
+        <v>22.6744337598374</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1965,10 +2595,10 @@
         <v>43733</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -1980,43 +2610,43 @@
         <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.778101066117799</v>
+        <v>24.7781010661178</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2027,16 +2657,16 @@
         <v>43929</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -2045,25 +2675,25 @@
         <v>24</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.092992037001402</v>
+        <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>45</v>
@@ -2072,16 +2702,16 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:20">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2089,16 +2719,16 @@
         <v>44079</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -2107,43 +2737,43 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K5" s="11">
-        <v>121.61893499999999</v>
+        <v>121.618935</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:20">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2151,10 +2781,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -2169,43 +2799,43 @@
         <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.965779725065101</v>
+        <v>21.9657797250651</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:20">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2213,61 +2843,61 @@
         <v>44178</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K7" s="11">
-        <v>120.60299999999999</v>
+        <v>120.603</v>
       </c>
       <c r="L7" s="11">
-        <v>22.648666670000001</v>
+        <v>22.64866667</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:20">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2275,10 +2905,10 @@
         <v>44105</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2293,43 +2923,43 @@
         <v>24</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108017999</v>
+        <v>120.68601108018</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:20">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2337,10 +2967,10 @@
         <v>43983</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -2352,43 +2982,43 @@
         <v>23</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.949660221619499</v>
+        <v>23.9496602216195</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2399,10 +3029,10 @@
         <v>44044</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -2417,43 +3047,43 @@
         <v>24</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.835424433448502</v>
+        <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
       </c>
       <c r="O10" s="15">
-        <v>22.674433759837399</v>
+        <v>22.6744337598374</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:20">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2461,16 +3091,16 @@
         <v>44287</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -2479,43 +3109,43 @@
         <v>24</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K11" s="11">
-        <v>121.25946045140699</v>
+        <v>121.259460451407</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:20">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2523,16 +3153,16 @@
         <v>44319</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -2541,40 +3171,40 @@
         <v>24</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2585,16 +3215,16 @@
         <v>44327</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>23</v>
@@ -2603,40 +3233,40 @@
         <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2647,10 +3277,10 @@
         <v>44341</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -2665,40 +3295,40 @@
         <v>24</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2709,10 +3339,10 @@
         <v>44355</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -2727,43 +3357,43 @@
         <v>24</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:20">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2771,16 +3401,16 @@
         <v>44363</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -2789,43 +3419,43 @@
         <v>24</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.801198384629199</v>
+        <v>22.8011983846292</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:20">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2833,10 +3463,10 @@
         <v>44376</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -2851,43 +3481,43 @@
         <v>24</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:20">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2895,58 +3525,58 @@
         <v>44381</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.574305559999999</v>
+        <v>24.57430556</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2957,16 +3587,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -2975,43 +3605,43 @@
         <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274000000000001</v>
+        <v>24.274</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:20">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3019,61 +3649,61 @@
         <v>44403</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.944784561874201</v>
+        <v>24.9447845618742</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:20">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3081,10 +3711,10 @@
         <v>44408</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -3099,10 +3729,10 @@
         <v>24</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -3111,28 +3741,28 @@
         <v>24.1144923218312</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3143,10 +3773,10 @@
         <v>44409</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -3161,40 +3791,40 @@
         <v>24</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.864986432454302</v>
+        <v>23.8649864324543</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3205,10 +3835,10 @@
         <v>44410</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>21</v>
@@ -3223,40 +3853,40 @@
         <v>24</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K23" s="11">
-        <v>120.68164345136501</v>
+        <v>120.681643451365</v>
       </c>
       <c r="L23" s="11">
-        <v>24.193368421839601</v>
+        <v>24.1933684218396</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3267,61 +3897,61 @@
         <v>44412</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.145835360983199</v>
+        <v>25.1458353609832</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:20">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3329,16 +3959,16 @@
         <v>44417</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -3347,43 +3977,43 @@
         <v>24</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.133469741145699</v>
+        <v>22.1334697411457</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:20">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3391,10 +4021,10 @@
         <v>44426</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -3412,40 +4042,40 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:20">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3453,16 +4083,16 @@
         <v>44449</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -3471,10 +4101,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -3483,31 +4113,31 @@
         <v>25.0369650741737</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:20">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3515,16 +4145,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -3533,10 +4163,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -3545,31 +4175,31 @@
         <v>23.6763958475496</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:20">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3577,10 +4207,10 @@
         <v>44481</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -3598,40 +4228,40 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.080611691640001</v>
+        <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:20">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3639,10 +4269,10 @@
         <v>44500</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -3657,43 +4287,43 @@
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.964507974183402</v>
+        <v>23.9645079741834</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:20">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3701,58 +4331,58 @@
         <v>44501</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016481999</v>
+        <v>120.47220016482</v>
       </c>
       <c r="L31" s="11">
-        <v>23.477816013745102</v>
+        <v>23.4778160137451</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3763,10 +4393,10 @@
         <v>44650</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -3781,40 +4411,40 @@
         <v>24</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3825,16 +4455,16 @@
         <v>44660</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -3846,37 +4476,37 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K33" s="11">
-        <v>121.67584039674701</v>
+        <v>121.675840396747</v>
       </c>
       <c r="L33" s="11">
-        <v>24.590804685346601</v>
+        <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3887,58 +4517,58 @@
         <v>44668</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.034755343517599</v>
+        <v>25.0347553435176</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3949,16 +4579,16 @@
         <v>44704</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -3967,40 +4597,40 @@
         <v>24</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.720484218959101</v>
+        <v>24.7204842189591</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4011,10 +4641,10 @@
         <v>44710</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -4032,37 +4662,37 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911495999</v>
+        <v>23.831319911496</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4073,10 +4703,10 @@
         <v>44717</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -4094,37 +4724,37 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411000000001</v>
+        <v>24.091411</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4135,10 +4765,10 @@
         <v>44728</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -4156,7 +4786,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -4165,28 +4795,28 @@
         <v>24.0111966910804</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4197,10 +4827,10 @@
         <v>44728</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -4215,40 +4845,40 @@
         <v>24</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K39" s="11">
-        <v>121.00631990175501</v>
+        <v>121.006319901755</v>
       </c>
       <c r="L39" s="11">
-        <v>23.978140812241399</v>
+        <v>23.9781408122414</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4262,7 +4892,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -4280,37 +4910,37 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100577999999999</v>
+        <v>23.100578</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4321,10 +4951,10 @@
         <v>44787</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -4342,37 +4972,37 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.086631499999999</v>
+        <v>24.0866315</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -4383,16 +5013,16 @@
         <v>44787</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -4401,44 +5031,45 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.192547423037201</v>
+        <v>24.1925474230372</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -271,6 +271,21 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/639354851240540/</t>
   </si>
   <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>南投國姓蕙蓀林場</t>
+  </si>
+  <si>
+    <t>臺中市南區</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，車頭接觸到旁邊雜草</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/645544233954935/</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
@@ -439,9 +454,6 @@
   </si>
   <si>
     <t>屏東恆春社頂公園</t>
-  </si>
-  <si>
-    <t>9:00</t>
   </si>
   <si>
     <t>黑棘山蟻</t>
@@ -668,14 +680,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -704,19 +716,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -750,7 +749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,22 +768,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,10 +795,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,7 +826,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,28 +857,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,72 +877,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -956,7 +889,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +913,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +961,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,61 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,21 +1068,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1111,17 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1133,24 +1106,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,20 +1124,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,131 +1191,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1351,7 +1350,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1363,10 +1362,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1384,7 +1383,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1393,7 +1392,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1402,19 +1401,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1736,13 +1735,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G7"/>
+      <selection activeCell="E8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
@@ -1819,7 +1818,7 @@
       <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="16" t="s">
@@ -1884,7 +1883,7 @@
       <c r="R2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1943,7 +1942,7 @@
       <c r="R3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2002,7 +2001,7 @@
       <c r="R4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="28" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2061,7 +2060,7 @@
       <c r="R5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="28" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2120,7 +2119,7 @@
       <c r="R6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="S6" s="29" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2161,7 +2160,7 @@
       <c r="L7" s="6">
         <v>23.969026</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="22" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="6">
@@ -2179,8 +2178,67 @@
       <c r="R7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="30" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20230723</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="6">
+        <v>121.003519</v>
+      </c>
+      <c r="L8" s="6">
+        <v>24.08028</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="6">
+        <v>120.662462331881</v>
+      </c>
+      <c r="O8" s="6">
+        <v>24.1214546035866</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2191,6 +2249,7 @@
     <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
     <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
     <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
+    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2215,10 +2274,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2226,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2234,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2242,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2250,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2258,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2266,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2274,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2282,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2290,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -2299,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -2308,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -2317,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2325,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -2334,7 +2393,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2342,7 +2401,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2350,7 +2409,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2358,7 +2417,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2366,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2374,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2387,42 +2446,42 @@
     </row>
     <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" ht="35" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="35" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" ht="35" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -2533,10 +2592,10 @@
         <v>42960</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -2551,10 +2610,10 @@
         <v>24</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
@@ -2563,7 +2622,7 @@
         <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
@@ -2572,19 +2631,19 @@
         <v>22.6744337598374</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2595,10 +2654,10 @@
         <v>43733</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2610,13 +2669,13 @@
         <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
@@ -2625,28 +2684,28 @@
         <v>24.7781010661178</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2657,16 +2716,16 @@
         <v>43929</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -2675,10 +2734,10 @@
         <v>24</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
@@ -2687,13 +2746,13 @@
         <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>45</v>
@@ -2702,13 +2761,13 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:20">
@@ -2719,16 +2778,16 @@
         <v>44079</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -2737,10 +2796,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K5" s="11">
         <v>121.618935</v>
@@ -2749,28 +2808,28 @@
         <v>25.044103</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:20">
@@ -2781,10 +2840,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -2799,10 +2858,10 @@
         <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
@@ -2811,28 +2870,28 @@
         <v>21.9657797250651</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:20">
@@ -2843,28 +2902,28 @@
         <v>44178</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K7" s="11">
         <v>120.603</v>
@@ -2873,28 +2932,28 @@
         <v>22.64866667</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:20">
@@ -2905,10 +2964,10 @@
         <v>44105</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2923,10 +2982,10 @@
         <v>24</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K8" s="11">
         <v>120.68601108018</v>
@@ -2935,28 +2994,28 @@
         <v>23.75684947021</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:20">
@@ -2967,10 +3026,10 @@
         <v>43983</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -2982,13 +3041,13 @@
         <v>23</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
@@ -2997,28 +3056,28 @@
         <v>23.9496602216195</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3029,10 +3088,10 @@
         <v>44044</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -3047,10 +3106,10 @@
         <v>24</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
@@ -3059,7 +3118,7 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
@@ -3068,19 +3127,19 @@
         <v>22.6744337598374</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:20">
@@ -3091,16 +3150,16 @@
         <v>44287</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -3109,10 +3168,10 @@
         <v>24</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K11" s="11">
         <v>121.259460451407</v>
@@ -3121,28 +3180,28 @@
         <v>25.0180892884336</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:20">
@@ -3153,16 +3212,16 @@
         <v>44319</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -3171,10 +3230,10 @@
         <v>24</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
@@ -3183,28 +3242,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3215,16 +3274,16 @@
         <v>44327</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>23</v>
@@ -3233,10 +3292,10 @@
         <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
@@ -3245,28 +3304,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3277,10 +3336,10 @@
         <v>44341</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -3295,10 +3354,10 @@
         <v>24</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
@@ -3307,28 +3366,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3339,10 +3398,10 @@
         <v>44355</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -3357,10 +3416,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
@@ -3369,28 +3428,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:20">
@@ -3401,16 +3460,16 @@
         <v>44363</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -3419,10 +3478,10 @@
         <v>24</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
@@ -3431,28 +3490,28 @@
         <v>22.8011983846292</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:20">
@@ -3463,10 +3522,10 @@
         <v>44376</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3481,10 +3540,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
@@ -3493,28 +3552,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:20">
@@ -3525,28 +3584,28 @@
         <v>44381</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
@@ -3555,28 +3614,28 @@
         <v>24.57430556</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3587,16 +3646,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3605,10 +3664,10 @@
         <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
@@ -3617,28 +3676,28 @@
         <v>24.274</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:20">
@@ -3649,28 +3708,28 @@
         <v>44403</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
@@ -3679,28 +3738,28 @@
         <v>24.9447845618742</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:20">
@@ -3711,10 +3770,10 @@
         <v>44408</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -3729,10 +3788,10 @@
         <v>24</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -3741,28 +3800,28 @@
         <v>24.1144923218312</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3773,10 +3832,10 @@
         <v>44409</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -3791,10 +3850,10 @@
         <v>24</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
@@ -3803,28 +3862,28 @@
         <v>23.8649864324543</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3835,10 +3894,10 @@
         <v>44410</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>21</v>
@@ -3853,10 +3912,10 @@
         <v>24</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K23" s="11">
         <v>120.681643451365</v>
@@ -3865,28 +3924,28 @@
         <v>24.1933684218396</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3897,28 +3956,28 @@
         <v>44412</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
@@ -3927,28 +3986,28 @@
         <v>25.1458353609832</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:20">
@@ -3959,16 +4018,16 @@
         <v>44417</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -3977,10 +4036,10 @@
         <v>24</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
@@ -3989,28 +4048,28 @@
         <v>22.1334697411457</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:20">
@@ -4021,10 +4080,10 @@
         <v>44426</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -4042,7 +4101,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
@@ -4051,28 +4110,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:20">
@@ -4083,16 +4142,16 @@
         <v>44449</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -4101,10 +4160,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -4113,28 +4172,28 @@
         <v>25.0369650741737</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:20">
@@ -4145,16 +4204,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -4163,10 +4222,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -4175,28 +4234,28 @@
         <v>23.6763958475496</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:20">
@@ -4207,10 +4266,10 @@
         <v>44481</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4228,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
@@ -4237,28 +4296,28 @@
         <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:20">
@@ -4269,10 +4328,10 @@
         <v>44500</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4287,10 +4346,10 @@
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
@@ -4299,28 +4358,28 @@
         <v>23.9645079741834</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:20">
@@ -4331,28 +4390,28 @@
         <v>44501</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K31" s="11">
         <v>120.47220016482</v>
@@ -4361,28 +4420,28 @@
         <v>23.4778160137451</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4393,10 +4452,10 @@
         <v>44650</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4411,10 +4470,10 @@
         <v>24</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
@@ -4423,28 +4482,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4455,16 +4514,16 @@
         <v>44660</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4476,7 +4535,7 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K33" s="11">
         <v>121.675840396747</v>
@@ -4485,28 +4544,28 @@
         <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4517,28 +4576,28 @@
         <v>44668</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
@@ -4547,28 +4606,28 @@
         <v>25.0347553435176</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4579,16 +4638,16 @@
         <v>44704</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -4597,10 +4656,10 @@
         <v>24</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
@@ -4609,28 +4668,28 @@
         <v>24.7204842189591</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4641,10 +4700,10 @@
         <v>44710</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -4662,7 +4721,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
@@ -4671,28 +4730,28 @@
         <v>23.831319911496</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4703,10 +4762,10 @@
         <v>44717</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -4724,7 +4783,7 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
@@ -4733,28 +4792,28 @@
         <v>24.091411</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4765,10 +4824,10 @@
         <v>44728</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -4786,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -4795,28 +4854,28 @@
         <v>24.0111966910804</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4827,10 +4886,10 @@
         <v>44728</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -4845,10 +4904,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K39" s="11">
         <v>121.006319901755</v>
@@ -4857,28 +4916,28 @@
         <v>23.9781408122414</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4892,7 +4951,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -4910,7 +4969,7 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
@@ -4919,28 +4978,28 @@
         <v>23.100578</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4951,10 +5010,10 @@
         <v>44787</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -4972,7 +5031,7 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
@@ -4981,28 +5040,28 @@
         <v>24.0866315</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5013,16 +5072,16 @@
         <v>44787</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -5031,10 +5090,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
@@ -5043,28 +5102,28 @@
         <v>24.1925474230372</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
     <sheet name="Data_not_from_FB_group" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -674,20 +674,37 @@
   <si>
     <t>藍色，停路邊和地下室</t>
   </si>
+  <si>
+    <t>太平坪林森林公園</t>
+  </si>
+  <si>
+    <t>公園，停放在樹蔭下，周邊有接觸到草叢</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/653396816503010/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/653398983169460/</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>南投鹿谷麒麟潭</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，周邊沒有接觸到其他草叢或植物枝條</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+    <numFmt numFmtId="167" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="8">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -726,143 +743,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,194 +769,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1070,263 +778,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1335,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1344,34 +813,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1383,7 +852,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1392,7 +861,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1404,70 +873,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1729,40 +1164,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.725" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.45625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.0875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.63125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.0875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" style="6" customWidth="1"/>
     <col min="10" max="10" width="26.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.45625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.26875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.18125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" style="6" customWidth="1"/>
     <col min="14" max="14" width="14.90625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.3625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.45625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.0875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="77.81875" style="22" customWidth="1"/>
-    <col min="19" max="19" width="67.63125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.725" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="77.81640625" style="22" customWidth="1"/>
+    <col min="19" max="19" width="67.6328125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.7265625" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1828,7 +1263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20" ht="18.75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1860,10 +1295,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.991599</v>
+        <v>120.99159899999999</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686784</v>
+        <v>22.686783999999999</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>27</v>
@@ -1872,7 +1307,7 @@
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.6887400162283</v>
+        <v>24.688740016228301</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1887,7 +1322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20" ht="18.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1919,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.795442</v>
+        <v>120.79544199999999</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -1946,7 +1381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20" ht="18.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1978,10 +1413,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804</v>
+        <v>120.55804000000001</v>
       </c>
       <c r="L4" s="6">
-        <v>24.06537</v>
+        <v>24.065370000000001</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
@@ -2005,7 +1440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20" ht="18.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2040,7 +1475,7 @@
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188</v>
+        <v>24.052188000000001</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>44</v>
@@ -2064,7 +1499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" ht="18.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2099,16 +1534,16 @@
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.94475</v>
+        <v>23.944749999999999</v>
       </c>
       <c r="M6" s="26" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.682886435026</v>
+        <v>120.68288643502601</v>
       </c>
       <c r="O6" s="6">
-        <v>24.1842020704196</v>
+        <v>24.184202070419602</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -2123,7 +1558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20" ht="18.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2158,7 +1593,7 @@
         <v>120.952707</v>
       </c>
       <c r="L7" s="6">
-        <v>23.969026</v>
+        <v>23.969025999999999</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>56</v>
@@ -2167,7 +1602,7 @@
         <v>120.610146611658</v>
       </c>
       <c r="O7" s="6">
-        <v>23.9709784614056</v>
+        <v>23.970978461405601</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>45</v>
@@ -2182,7 +1617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20" ht="18.75">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2217,7 +1652,7 @@
         <v>121.003519</v>
       </c>
       <c r="L8" s="6">
-        <v>24.08028</v>
+        <v>24.080279999999998</v>
       </c>
       <c r="M8" s="26" t="s">
         <v>61</v>
@@ -2226,7 +1661,7 @@
         <v>120.662462331881</v>
       </c>
       <c r="O8" s="6">
-        <v>24.1214546035866</v>
+        <v>24.121454603586599</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>45</v>
@@ -2241,38 +1676,156 @@
         <v>63</v>
       </c>
     </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20230808</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="6">
+        <v>120.800281</v>
+      </c>
+      <c r="L9" s="6">
+        <v>23.828551999999998</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20230810</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="6">
+        <v>120.77447789999999</v>
+      </c>
+      <c r="L10" s="6">
+        <v>23.749311599999999</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
-    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
-    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
-    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
-    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
-    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
-    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5"/>
+    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S8" r:id="rId7"/>
+    <hyperlink ref="S9" r:id="rId8"/>
+    <hyperlink ref="S10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.45625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="79.0875" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>64</v>
       </c>
@@ -2280,7 +1833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +1841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2296,7 +1849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2304,7 +1857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +1865,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2320,7 +1873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +1881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2336,7 +1889,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +1924,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2388,7 +1941,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2396,7 +1949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2444,7 +1997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="87.5" spans="1:2">
+    <row r="22" spans="1:2" ht="90">
       <c r="A22" s="18" t="s">
         <v>85</v>
       </c>
@@ -2452,7 +2005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" ht="122.5" spans="1:2">
+    <row r="23" spans="1:2" ht="126">
       <c r="A23" s="18" t="s">
         <v>87</v>
       </c>
@@ -2460,7 +2013,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" ht="35" spans="1:2">
+    <row r="24" spans="1:2" ht="36">
       <c r="A24" s="18" t="s">
         <v>89</v>
       </c>
@@ -2468,7 +2021,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:2">
+    <row r="25" spans="1:2" ht="36">
       <c r="A25" s="18" t="s">
         <v>91</v>
       </c>
@@ -2476,7 +2029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" ht="35" spans="1:2">
+    <row r="26" spans="1:2" ht="36">
       <c r="A26" s="18" t="s">
         <v>93</v>
       </c>
@@ -2486,40 +2039,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.45625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.26875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.0875" customWidth="1"/>
-    <col min="5" max="5" width="17.0875" customWidth="1"/>
-    <col min="6" max="6" width="25.45625" customWidth="1"/>
-    <col min="7" max="7" width="14.63125" customWidth="1"/>
-    <col min="8" max="8" width="14.45625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="13.90625" customWidth="1"/>
     <col min="10" max="10" width="42" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.81875" customWidth="1"/>
-    <col min="12" max="12" width="16.63125" customWidth="1"/>
-    <col min="13" max="13" width="11.0875" customWidth="1"/>
-    <col min="14" max="14" width="15.3625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.63125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="5" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="13.63125" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" customWidth="1"/>
     <col min="18" max="18" width="77.90625" customWidth="1"/>
-    <col min="19" max="19" width="8.81875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.81875" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2619,7 +2170,7 @@
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.9147099644175</v>
+        <v>23.914709964417501</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>99</v>
@@ -2628,7 +2179,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.6744337598374</v>
+        <v>22.674433759837399</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>96</v>
@@ -2681,7 +2232,7 @@
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.7781010661178</v>
+        <v>24.778101066117799</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>96</v>
@@ -2743,7 +2294,7 @@
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.0929920370014</v>
+        <v>24.092992037001402</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>96</v>
@@ -2770,7 +2321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    <row r="5" spans="1:20" s="1" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2802,7 +2353,7 @@
         <v>114</v>
       </c>
       <c r="K5" s="11">
-        <v>121.618935</v>
+        <v>121.61893499999999</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
@@ -2832,7 +2383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:20">
+    <row r="6" spans="1:20" s="1" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2867,7 +2418,7 @@
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.9657797250651</v>
+        <v>21.965779725065101</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>96</v>
@@ -2894,7 +2445,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:20">
+    <row r="7" spans="1:20" s="1" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2926,10 +2477,10 @@
         <v>122</v>
       </c>
       <c r="K7" s="11">
-        <v>120.603</v>
+        <v>120.60299999999999</v>
       </c>
       <c r="L7" s="11">
-        <v>22.64866667</v>
+        <v>22.648666670000001</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>96</v>
@@ -2956,7 +2507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:20">
+    <row r="8" spans="1:20" s="1" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2988,7 +2539,7 @@
         <v>124</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108018</v>
+        <v>120.68601108017999</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
@@ -3018,7 +2569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:20">
+    <row r="9" spans="1:20" s="1" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3053,7 +2604,7 @@
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.9496602216195</v>
+        <v>23.949660221619499</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>96</v>
@@ -3115,7 +2666,7 @@
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.8354244334485</v>
+        <v>23.835424433448502</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>99</v>
@@ -3124,7 +2675,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O10" s="15">
-        <v>22.6744337598374</v>
+        <v>22.674433759837399</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>96</v>
@@ -3142,7 +2693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:20">
+    <row r="11" spans="1:20" s="1" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3174,7 +2725,7 @@
         <v>128</v>
       </c>
       <c r="K11" s="11">
-        <v>121.259460451407</v>
+        <v>121.25946045140699</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
@@ -3204,7 +2755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:20">
+    <row r="12" spans="1:20" s="1" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3239,7 +2790,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>96</v>
@@ -3301,7 +2852,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>96</v>
@@ -3363,7 +2914,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>96</v>
@@ -3425,7 +2976,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>96</v>
@@ -3452,7 +3003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:20">
+    <row r="16" spans="1:20" s="1" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3487,7 +3038,7 @@
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.8011983846292</v>
+        <v>22.801198384629199</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>96</v>
@@ -3514,7 +3065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:20">
+    <row r="17" spans="1:20" s="1" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3549,7 +3100,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>96</v>
@@ -3576,7 +3127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:20">
+    <row r="18" spans="1:20" s="1" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3611,7 +3162,7 @@
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.57430556</v>
+        <v>24.574305559999999</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>96</v>
@@ -3673,7 +3224,7 @@
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274</v>
+        <v>24.274000000000001</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>96</v>
@@ -3700,7 +3251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:20">
+    <row r="20" spans="1:20" s="1" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3735,7 +3286,7 @@
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.9447845618742</v>
+        <v>24.944784561874201</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>96</v>
@@ -3762,7 +3313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:20">
+    <row r="21" spans="1:20" s="1" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3859,7 +3410,7 @@
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.8649864324543</v>
+        <v>23.864986432454302</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>96</v>
@@ -3918,10 +3469,10 @@
         <v>153</v>
       </c>
       <c r="K23" s="11">
-        <v>120.681643451365</v>
+        <v>120.68164345136501</v>
       </c>
       <c r="L23" s="11">
-        <v>24.1933684218396</v>
+        <v>24.193368421839601</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>96</v>
@@ -3983,7 +3534,7 @@
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.1458353609832</v>
+        <v>25.145835360983199</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>96</v>
@@ -4010,7 +3561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:20">
+    <row r="25" spans="1:20" s="1" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4045,7 +3596,7 @@
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.1334697411457</v>
+        <v>22.133469741145699</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>96</v>
@@ -4072,7 +3623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:20">
+    <row r="26" spans="1:20" s="1" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4107,7 +3658,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>96</v>
@@ -4134,7 +3685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:20">
+    <row r="27" spans="1:20" s="1" customFormat="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4196,7 +3747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:20">
+    <row r="28" spans="1:20" s="1" customFormat="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4258,7 +3809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:20">
+    <row r="29" spans="1:20" s="1" customFormat="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4293,7 +3844,7 @@
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.08061169164</v>
+        <v>25.080611691640001</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>96</v>
@@ -4320,7 +3871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:20">
+    <row r="30" spans="1:20" s="1" customFormat="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4355,7 +3906,7 @@
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.9645079741834</v>
+        <v>23.964507974183402</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>96</v>
@@ -4382,7 +3933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:20">
+    <row r="31" spans="1:20" s="1" customFormat="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4414,10 +3965,10 @@
         <v>164</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016482</v>
+        <v>120.47220016481999</v>
       </c>
       <c r="L31" s="11">
-        <v>23.4778160137451</v>
+        <v>23.477816013745102</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>96</v>
@@ -4479,7 +4030,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>96</v>
@@ -4538,10 +4089,10 @@
         <v>169</v>
       </c>
       <c r="K33" s="11">
-        <v>121.675840396747</v>
+        <v>121.67584039674701</v>
       </c>
       <c r="L33" s="11">
-        <v>24.5908046853466</v>
+        <v>24.590804685346601</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>96</v>
@@ -4603,7 +4154,7 @@
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.0347553435176</v>
+        <v>25.034755343517599</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>96</v>
@@ -4665,7 +4216,7 @@
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.7204842189591</v>
+        <v>24.720484218959101</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>96</v>
@@ -4727,7 +4278,7 @@
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911496</v>
+        <v>23.831319911495999</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>96</v>
@@ -4789,7 +4340,7 @@
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411</v>
+        <v>24.091411000000001</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>96</v>
@@ -4910,10 +4461,10 @@
         <v>183</v>
       </c>
       <c r="K39" s="11">
-        <v>121.006319901755</v>
+        <v>121.00631990175501</v>
       </c>
       <c r="L39" s="11">
-        <v>23.9781408122414</v>
+        <v>23.978140812241399</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>96</v>
@@ -4975,7 +4526,7 @@
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100578</v>
+        <v>23.100577999999999</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>96</v>
@@ -5037,7 +4588,7 @@
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.0866315</v>
+        <v>24.086631499999999</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>96</v>
@@ -5099,7 +4650,7 @@
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.1925474230372</v>
+        <v>24.192547423037201</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>96</v>
@@ -5129,6 +4680,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
+    <workbookView windowWidth="18530" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
     <sheet name="Data_not_from_FB_group" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="207">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,66 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/645544233954935/</t>
   </si>
   <si>
+    <t>太平坪林森林公園</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>公園，停放在樹蔭下，周邊有接觸到草叢</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/653396816503010/</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>南投鹿谷麒麟潭</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，周邊沒有接觸到其他草叢或植物枝條</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/653398983169460/</t>
+  </si>
+  <si>
+    <t>0:00</t>
+  </si>
+  <si>
+    <t>破壞毛家蟻</t>
+  </si>
+  <si>
+    <t>Trichomyrmex_destructor</t>
+  </si>
+  <si>
+    <t>Scooter</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>桃園火車站前機車保管場</t>
+  </si>
+  <si>
+    <t>桃園市龜山區長壽路</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>鐵皮屋室內停車場，水泥地</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/654078399768185/</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
@@ -387,9 +447,6 @@
     <t>Parking_duration</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>A day</t>
   </si>
   <si>
@@ -408,9 +465,6 @@
     <t>A month</t>
   </si>
   <si>
-    <t>Scooter</t>
-  </si>
-  <si>
     <t>新竹科學園區停車場</t>
   </si>
   <si>
@@ -609,9 +663,6 @@
     <t>宜蘭大同古魯林道</t>
   </si>
   <si>
-    <t>Rainy</t>
-  </si>
-  <si>
     <t>下雨，黑色車子</t>
   </si>
   <si>
@@ -639,9 +690,6 @@
     <t>白車，有一半遮蔭的草地</t>
   </si>
   <si>
-    <t>0:00</t>
-  </si>
-  <si>
     <t>南投縣埔里福長路12巷</t>
   </si>
   <si>
@@ -666,45 +714,25 @@
     <t>白車，回科博館，有草，短短的，不高。</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>台中市北屯區昌平路二段</t>
   </si>
   <si>
     <t>藍色，停路邊和地下室</t>
-  </si>
-  <si>
-    <t>太平坪林森林公園</t>
-  </si>
-  <si>
-    <t>公園，停放在樹蔭下，周邊有接觸到草叢</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/653396816503010/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/653398983169460/</t>
-  </si>
-  <si>
-    <t>11:37</t>
-  </si>
-  <si>
-    <t>南投鹿谷麒麟潭</t>
-  </si>
-  <si>
-    <t>停放在樹蔭下，周邊沒有接觸到其他草叢或植物枝條</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
-    <numFmt numFmtId="167" formatCode="0.0_);[Red]\(0.0\)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="26">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -732,6 +760,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -743,20 +777,150 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,8 +933,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -778,14 +1128,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="36">
@@ -795,7 +1384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -804,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,34 +1402,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -852,7 +1441,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -861,48 +1450,94 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1164,40 +1799,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.725" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.45625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.0875" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.63125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.0875" style="6" customWidth="1"/>
     <col min="10" max="10" width="26.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.1796875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.45625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.26875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="25.18125" style="6" customWidth="1"/>
     <col min="14" max="14" width="14.90625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="77.81640625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="67.6328125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.7265625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.3625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.45625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.0875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="77.81875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="67.63125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.725" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1253,7 +1888,7 @@
       <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="16" t="s">
@@ -1263,7 +1898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75">
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1291,23 +1926,23 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="29" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.99159899999999</v>
+        <v>120.991599</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686783999999999</v>
-      </c>
-      <c r="M2" s="26" t="s">
+        <v>22.686784</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="6">
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.688740016228301</v>
+        <v>24.6887400162283</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1318,11 +1953,11 @@
       <c r="R2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:19">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1354,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.79544199999999</v>
+        <v>120.795442</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -1377,11 +2012,11 @@
       <c r="R3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18.75">
+    <row r="4" spans="1:19">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1413,10 +2048,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804000000001</v>
+        <v>120.55804</v>
       </c>
       <c r="L4" s="6">
-        <v>24.065370000000001</v>
+        <v>24.06537</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
@@ -1436,11 +2071,11 @@
       <c r="R4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.75">
+    <row r="5" spans="1:19">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1468,16 +2103,16 @@
       <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="29" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="6">
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188000000001</v>
-      </c>
-      <c r="M5" s="26" t="s">
+        <v>24.052188</v>
+      </c>
+      <c r="M5" s="29" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="6">
@@ -1495,11 +2130,11 @@
       <c r="R5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18.75">
+    <row r="6" spans="1:19">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1527,23 +2162,23 @@
       <c r="I6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="22">
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.944749999999999</v>
-      </c>
-      <c r="M6" s="26" t="s">
+        <v>23.94475</v>
+      </c>
+      <c r="M6" s="29" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.68288643502601</v>
+        <v>120.682886435026</v>
       </c>
       <c r="O6" s="6">
-        <v>24.184202070419602</v>
+        <v>24.1842020704196</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -1551,14 +2186,14 @@
       <c r="Q6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18.75">
+    <row r="7" spans="1:19">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1586,14 +2221,14 @@
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="6">
         <v>120.952707</v>
       </c>
       <c r="L7" s="6">
-        <v>23.969025999999999</v>
+        <v>23.969026</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>56</v>
@@ -1602,7 +2237,7 @@
         <v>120.610146611658</v>
       </c>
       <c r="O7" s="6">
-        <v>23.970978461405601</v>
+        <v>23.9709784614056</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>45</v>
@@ -1613,11 +2248,11 @@
       <c r="R7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18.75">
+    <row r="8" spans="1:19">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1645,23 +2280,23 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="29" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="6">
         <v>121.003519</v>
       </c>
       <c r="L8" s="6">
-        <v>24.080279999999998</v>
-      </c>
-      <c r="M8" s="26" t="s">
+        <v>24.08028</v>
+      </c>
+      <c r="M8" s="29" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="6">
         <v>120.662462331881</v>
       </c>
       <c r="O8" s="6">
-        <v>24.121454603586599</v>
+        <v>24.1214546035866</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>45</v>
@@ -1669,21 +2304,21 @@
       <c r="Q8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="29" t="s">
         <v>62</v>
       </c>
       <c r="S8" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:19">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>20230808</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="21">
@@ -1698,55 +2333,55 @@
       <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>192</v>
+      <c r="J9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="K9" s="6">
         <v>120.800281</v>
       </c>
       <c r="L9" s="6">
-        <v>23.828551999999998</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q9" s="33" t="s">
+        <v>23.828552</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="33" t="s">
-        <v>193</v>
+      <c r="R9" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>20230810</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>96</v>
+      <c r="C10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>21</v>
@@ -1757,144 +2392,206 @@
       <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>197</v>
+      <c r="I10" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="K10" s="6">
-        <v>120.77447789999999</v>
+        <v>120.7744779</v>
       </c>
       <c r="L10" s="6">
-        <v>23.749311599999999</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" s="33" t="s">
+        <v>23.7493116</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="33" t="s">
+      <c r="Q10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="33" t="s">
-        <v>198</v>
+      <c r="R10" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>195</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20230807</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="21">
+        <v>72</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="6">
+        <v>121.3147845</v>
+      </c>
+      <c r="L11" s="6">
+        <v>24.9900554</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="6">
+        <v>121.336737259589</v>
+      </c>
+      <c r="O11" s="6">
+        <v>24.998169671502</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
-    <hyperlink ref="S6" r:id="rId5"/>
-    <hyperlink ref="S7" r:id="rId6"/>
-    <hyperlink ref="S8" r:id="rId7"/>
-    <hyperlink ref="S9" r:id="rId8"/>
-    <hyperlink ref="S10" r:id="rId9"/>
+    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
+    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
+    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
+    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
+    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
+    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
+    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
+    <hyperlink ref="S9" r:id="rId8" display="https://www.facebook.com/groups/577051257470900/permalink/653396816503010/"/>
+    <hyperlink ref="S10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
+    <hyperlink ref="S11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="79.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.45625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.0875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1902,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -1911,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -1920,16 +2617,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1937,24 +2634,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1962,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1970,7 +2667,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1978,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1986,7 +2683,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1997,80 +2694,82 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90">
+    <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="126">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" ht="35" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="36">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" ht="35" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="36">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" ht="35" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.45625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.26875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.0875" customWidth="1"/>
+    <col min="5" max="5" width="17.0875" customWidth="1"/>
+    <col min="6" max="6" width="25.45625" customWidth="1"/>
+    <col min="7" max="7" width="14.63125" customWidth="1"/>
+    <col min="8" max="8" width="14.45625" customWidth="1"/>
     <col min="9" max="9" width="13.90625" customWidth="1"/>
     <col min="10" max="10" width="42" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.81875" customWidth="1"/>
+    <col min="12" max="12" width="16.63125" customWidth="1"/>
+    <col min="13" max="13" width="11.0875" customWidth="1"/>
+    <col min="14" max="14" width="15.3625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.63125" style="5" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="13.63125" customWidth="1"/>
     <col min="18" max="18" width="77.90625" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.81640625" customWidth="1"/>
+    <col min="19" max="19" width="8.81875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.81875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2084,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -2143,10 +2842,10 @@
         <v>42960</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -2161,40 +2860,40 @@
         <v>24</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.914709964417501</v>
+        <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.674433759837399</v>
+        <v>22.6744337598374</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2205,10 +2904,10 @@
         <v>43733</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2220,43 +2919,43 @@
         <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.778101066117799</v>
+        <v>24.7781010661178</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2267,16 +2966,16 @@
         <v>43929</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -2285,25 +2984,25 @@
         <v>24</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.092992037001402</v>
+        <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>45</v>
@@ -2312,16 +3011,16 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:20">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2329,16 +3028,16 @@
         <v>44079</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -2347,43 +3046,43 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="K5" s="11">
-        <v>121.61893499999999</v>
+        <v>121.618935</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:20">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2391,10 +3090,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -2409,43 +3108,43 @@
         <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.965779725065101</v>
+        <v>21.9657797250651</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:20">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2456,58 +3155,58 @@
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="K7" s="11">
-        <v>120.60299999999999</v>
+        <v>120.603</v>
       </c>
       <c r="L7" s="11">
-        <v>22.648666670000001</v>
+        <v>22.64866667</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:20">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2515,10 +3214,10 @@
         <v>44105</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2533,43 +3232,43 @@
         <v>24</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108017999</v>
+        <v>120.68601108018</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:20">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2577,10 +3276,10 @@
         <v>43983</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -2592,43 +3291,43 @@
         <v>23</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.949660221619499</v>
+        <v>23.9496602216195</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2639,10 +3338,10 @@
         <v>44044</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -2657,43 +3356,43 @@
         <v>24</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.835424433448502</v>
+        <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
       </c>
       <c r="O10" s="15">
-        <v>22.674433759837399</v>
+        <v>22.6744337598374</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:20">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2701,16 +3400,16 @@
         <v>44287</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -2719,43 +3418,43 @@
         <v>24</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="K11" s="11">
-        <v>121.25946045140699</v>
+        <v>121.259460451407</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:20">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2763,16 +3462,16 @@
         <v>44319</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -2781,40 +3480,40 @@
         <v>24</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2825,16 +3524,16 @@
         <v>44327</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>23</v>
@@ -2843,40 +3542,40 @@
         <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2887,10 +3586,10 @@
         <v>44341</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -2905,40 +3604,40 @@
         <v>24</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2949,10 +3648,10 @@
         <v>44355</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -2967,43 +3666,43 @@
         <v>24</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:20">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3011,16 +3710,16 @@
         <v>44363</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -3029,43 +3728,43 @@
         <v>24</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.801198384629199</v>
+        <v>22.8011983846292</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:20">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3073,10 +3772,10 @@
         <v>44376</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3091,43 +3790,43 @@
         <v>24</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:20">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3135,58 +3834,58 @@
         <v>44381</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.574305559999999</v>
+        <v>24.57430556</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3197,16 +3896,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3215,43 +3914,43 @@
         <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274000000000001</v>
+        <v>24.274</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:20">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3259,61 +3958,61 @@
         <v>44403</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.944784561874201</v>
+        <v>24.9447845618742</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:20">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3321,10 +4020,10 @@
         <v>44408</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -3339,10 +4038,10 @@
         <v>24</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -3351,28 +4050,28 @@
         <v>24.1144923218312</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3383,10 +4082,10 @@
         <v>44409</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -3401,40 +4100,40 @@
         <v>24</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.864986432454302</v>
+        <v>23.8649864324543</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3445,10 +4144,10 @@
         <v>44410</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>21</v>
@@ -3463,40 +4162,40 @@
         <v>24</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K23" s="11">
-        <v>120.68164345136501</v>
+        <v>120.681643451365</v>
       </c>
       <c r="L23" s="11">
-        <v>24.193368421839601</v>
+        <v>24.1933684218396</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3507,61 +4206,61 @@
         <v>44412</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.145835360983199</v>
+        <v>25.1458353609832</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:20">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3569,16 +4268,16 @@
         <v>44417</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -3587,43 +4286,43 @@
         <v>24</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.133469741145699</v>
+        <v>22.1334697411457</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:20">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3631,10 +4330,10 @@
         <v>44426</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -3652,40 +4351,40 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:20">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3693,16 +4392,16 @@
         <v>44449</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -3711,10 +4410,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -3723,31 +4422,31 @@
         <v>25.0369650741737</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:20">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3755,16 +4454,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -3773,10 +4472,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -3785,31 +4484,31 @@
         <v>23.6763958475496</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:20">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3817,10 +4516,10 @@
         <v>44481</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -3838,40 +4537,40 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.080611691640001</v>
+        <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:20">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3879,10 +4578,10 @@
         <v>44500</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -3897,43 +4596,43 @@
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.964507974183402</v>
+        <v>23.9645079741834</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:20">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3941,58 +4640,58 @@
         <v>44501</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016481999</v>
+        <v>120.47220016482</v>
       </c>
       <c r="L31" s="11">
-        <v>23.477816013745102</v>
+        <v>23.4778160137451</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4003,10 +4702,10 @@
         <v>44650</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4021,40 +4720,40 @@
         <v>24</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4065,16 +4764,16 @@
         <v>44660</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4086,37 +4785,37 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K33" s="11">
-        <v>121.67584039674701</v>
+        <v>121.675840396747</v>
       </c>
       <c r="L33" s="11">
-        <v>24.590804685346601</v>
+        <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4127,58 +4826,58 @@
         <v>44668</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.034755343517599</v>
+        <v>25.0347553435176</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4189,16 +4888,16 @@
         <v>44704</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -4207,40 +4906,40 @@
         <v>24</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.720484218959101</v>
+        <v>24.7204842189591</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4251,10 +4950,10 @@
         <v>44710</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -4272,37 +4971,37 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911495999</v>
+        <v>23.831319911496</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4316,7 +5015,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -4334,37 +5033,37 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411000000001</v>
+        <v>24.091411</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4375,10 +5074,10 @@
         <v>44728</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -4396,7 +5095,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -4405,28 +5104,28 @@
         <v>24.0111966910804</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4437,10 +5136,10 @@
         <v>44728</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -4455,40 +5154,40 @@
         <v>24</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K39" s="11">
-        <v>121.00631990175501</v>
+        <v>121.006319901755</v>
       </c>
       <c r="L39" s="11">
-        <v>23.978140812241399</v>
+        <v>23.9781408122414</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4502,7 +5201,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -4520,37 +5219,37 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100577999999999</v>
+        <v>23.100578</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4561,10 +5260,10 @@
         <v>44787</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -4582,37 +5281,37 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.086631499999999</v>
+        <v>24.0866315</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -4623,16 +5322,16 @@
         <v>44787</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -4641,44 +5340,45 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.192547423037201</v>
+        <v>24.1925474230372</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -346,6 +346,15 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/654078399768185/</t>
   </si>
   <si>
+    <t>汀州路四段師大分布側門</t>
+  </si>
+  <si>
+    <t>路邊機車停車格，停放在樹蔭下，周邊沒有接觸到其他草叢或植物枝條</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/657758346066857/</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
@@ -727,12 +736,12 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -760,20 +769,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -792,16 +788,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,14 +825,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,8 +900,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,59 +913,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -941,37 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,67 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,7 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1003,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1051,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,50 +1140,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,8 +1167,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,7 +1227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,135 +1245,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,34 +1452,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1805,10 +1798,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1888,7 +1881,7 @@
       <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="16" t="s">
@@ -1926,7 +1919,7 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6">
@@ -1935,7 +1928,7 @@
       <c r="L2" s="6">
         <v>22.686784</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="6">
@@ -1953,7 +1946,7 @@
       <c r="R2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2012,7 +2005,7 @@
       <c r="R3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2071,7 +2064,7 @@
       <c r="R4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2103,7 +2096,7 @@
       <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="6">
@@ -2112,7 +2105,7 @@
       <c r="L5" s="6">
         <v>24.052188</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="28" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="6">
@@ -2130,7 +2123,7 @@
       <c r="R5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2162,7 +2155,7 @@
       <c r="I6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="28" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="22">
@@ -2171,7 +2164,7 @@
       <c r="L6" s="6">
         <v>23.94475</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
@@ -2186,10 +2179,10 @@
       <c r="Q6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2221,7 +2214,7 @@
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="6">
@@ -2248,7 +2241,7 @@
       <c r="R7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2280,7 +2273,7 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="6">
@@ -2289,7 +2282,7 @@
       <c r="L8" s="6">
         <v>24.08028</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="28" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="6">
@@ -2304,10 +2297,10 @@
       <c r="Q8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="30" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2333,13 +2326,13 @@
       <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="22" t="s">
         <v>64</v>
       </c>
       <c r="K9" s="6">
@@ -2348,25 +2341,25 @@
       <c r="L9" s="6">
         <v>23.828552</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="27" t="s">
+      <c r="M9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="32" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2380,7 +2373,7 @@
       <c r="C10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2392,13 +2385,13 @@
       <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="22" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="6">
@@ -2407,25 +2400,25 @@
       <c r="L10" s="6">
         <v>23.7493116</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="27" t="s">
+      <c r="M10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="32" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2442,7 +2435,7 @@
       <c r="D11" s="21">
         <v>72</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2457,7 +2450,7 @@
       <c r="I11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>79</v>
       </c>
       <c r="K11" s="6">
@@ -2466,7 +2459,7 @@
       <c r="L11" s="6">
         <v>24.9900554</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="28" t="s">
         <v>80</v>
       </c>
       <c r="N11" s="6">
@@ -2481,11 +2474,61 @@
       <c r="Q11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="33" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20230331</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="21">
+        <v>72</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="6">
+        <v>121.536392</v>
+      </c>
+      <c r="L12" s="6">
+        <v>25.006433</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2500,6 +2543,7 @@
     <hyperlink ref="S9" r:id="rId8" display="https://www.facebook.com/groups/577051257470900/permalink/653396816503010/"/>
     <hyperlink ref="S10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
     <hyperlink ref="S11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
+    <hyperlink ref="S12" r:id="rId11" display="https://www.facebook.com/groups/577051257470900/permalink/657758346066857/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2524,10 +2568,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2535,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2543,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2551,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2559,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2567,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2575,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2583,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2591,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2599,7 +2643,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -2608,7 +2652,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -2617,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -2626,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2634,7 +2678,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -2643,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2651,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2659,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2667,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2675,7 +2719,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2683,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2696,42 +2740,42 @@
     </row>
     <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" ht="35" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" ht="35" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" ht="35" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -2845,7 +2889,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -2863,7 +2907,7 @@
         <v>65</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
@@ -2872,7 +2916,7 @@
         <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
@@ -2887,13 +2931,13 @@
         <v>65</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2907,7 +2951,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2925,7 +2969,7 @@
         <v>65</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
@@ -2949,13 +2993,13 @@
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2969,13 +3013,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -2987,7 +3031,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
@@ -3011,13 +3055,13 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:20">
@@ -3031,13 +3075,13 @@
         <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -3046,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K5" s="11">
         <v>121.618935</v>
@@ -3073,13 +3117,13 @@
         <v>65</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:20">
@@ -3090,10 +3134,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -3111,7 +3155,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
@@ -3141,7 +3185,7 @@
         <v>65</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:20">
@@ -3155,16 +3199,16 @@
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>77</v>
@@ -3173,7 +3217,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K7" s="11">
         <v>120.603</v>
@@ -3197,13 +3241,13 @@
         <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:20">
@@ -3217,7 +3261,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -3235,7 +3279,7 @@
         <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K8" s="11">
         <v>120.68601108018</v>
@@ -3265,7 +3309,7 @@
         <v>65</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:20">
@@ -3279,7 +3323,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -3297,7 +3341,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
@@ -3327,7 +3371,7 @@
         <v>65</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3341,7 +3385,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -3359,7 +3403,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
@@ -3368,7 +3412,7 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
@@ -3383,13 +3427,13 @@
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:20">
@@ -3403,13 +3447,13 @@
         <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -3421,7 +3465,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K11" s="11">
         <v>121.259460451407</v>
@@ -3445,13 +3489,13 @@
         <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:20">
@@ -3465,13 +3509,13 @@
         <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -3483,7 +3527,7 @@
         <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
@@ -3513,7 +3557,7 @@
         <v>65</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3527,13 +3571,13 @@
         <v>65</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>23</v>
@@ -3545,7 +3589,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
@@ -3569,13 +3613,13 @@
         <v>65</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3589,7 +3633,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -3607,7 +3651,7 @@
         <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
@@ -3631,13 +3675,13 @@
         <v>65</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3651,7 +3695,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -3669,7 +3713,7 @@
         <v>65</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
@@ -3699,7 +3743,7 @@
         <v>65</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:20">
@@ -3713,13 +3757,13 @@
         <v>65</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -3731,7 +3775,7 @@
         <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
@@ -3755,13 +3799,13 @@
         <v>65</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:20">
@@ -3775,7 +3819,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3793,7 +3837,7 @@
         <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
@@ -3817,13 +3861,13 @@
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:20">
@@ -3837,16 +3881,16 @@
         <v>65</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
@@ -3855,7 +3899,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
@@ -3879,13 +3923,13 @@
         <v>65</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3896,16 +3940,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3917,7 +3961,7 @@
         <v>65</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
@@ -3941,13 +3985,13 @@
         <v>65</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:20">
@@ -3961,16 +4005,16 @@
         <v>65</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
@@ -3979,7 +4023,7 @@
         <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
@@ -4003,13 +4047,13 @@
         <v>65</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:20">
@@ -4023,7 +4067,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -4041,7 +4085,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -4065,13 +4109,13 @@
         <v>65</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -4085,7 +4129,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -4103,7 +4147,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
@@ -4133,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -4165,7 +4209,7 @@
         <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K23" s="11">
         <v>120.681643451365</v>
@@ -4189,13 +4233,13 @@
         <v>65</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -4209,13 +4253,13 @@
         <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>23</v>
@@ -4227,7 +4271,7 @@
         <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
@@ -4257,7 +4301,7 @@
         <v>65</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:20">
@@ -4271,13 +4315,13 @@
         <v>65</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -4289,7 +4333,7 @@
         <v>65</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
@@ -4319,7 +4363,7 @@
         <v>65</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:20">
@@ -4333,7 +4377,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -4351,7 +4395,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
@@ -4375,13 +4419,13 @@
         <v>65</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:20">
@@ -4395,13 +4439,13 @@
         <v>65</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -4413,7 +4457,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -4443,7 +4487,7 @@
         <v>65</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:20">
@@ -4454,16 +4498,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -4475,7 +4519,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -4505,7 +4549,7 @@
         <v>65</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:20">
@@ -4519,7 +4563,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4537,7 +4581,7 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
@@ -4561,13 +4605,13 @@
         <v>65</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:20">
@@ -4581,7 +4625,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4599,7 +4643,7 @@
         <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
@@ -4623,13 +4667,13 @@
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:20">
@@ -4643,13 +4687,13 @@
         <v>65</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
@@ -4661,7 +4705,7 @@
         <v>65</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K31" s="11">
         <v>120.47220016482</v>
@@ -4685,13 +4729,13 @@
         <v>65</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4705,7 +4749,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4723,7 +4767,7 @@
         <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
@@ -4747,13 +4791,13 @@
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4767,13 +4811,13 @@
         <v>65</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4785,7 +4829,7 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K33" s="11">
         <v>121.675840396747</v>
@@ -4809,13 +4853,13 @@
         <v>65</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4829,13 +4873,13 @@
         <v>65</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -4847,7 +4891,7 @@
         <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
@@ -4871,13 +4915,13 @@
         <v>65</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4891,13 +4935,13 @@
         <v>65</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -4909,7 +4953,7 @@
         <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
@@ -4933,13 +4977,13 @@
         <v>65</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4953,7 +4997,7 @@
         <v>65</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -4971,7 +5015,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
@@ -4995,13 +5039,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -5015,7 +5059,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -5033,7 +5077,7 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
@@ -5057,13 +5101,13 @@
         <v>65</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5077,7 +5121,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -5095,7 +5139,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -5119,13 +5163,13 @@
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -5139,7 +5183,7 @@
         <v>65</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -5157,7 +5201,7 @@
         <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K39" s="11">
         <v>121.006319901755</v>
@@ -5181,13 +5225,13 @@
         <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5201,7 +5245,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -5219,7 +5263,7 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
@@ -5243,13 +5287,13 @@
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5263,7 +5307,7 @@
         <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -5281,7 +5325,7 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
@@ -5305,13 +5349,13 @@
         <v>65</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5325,13 +5369,13 @@
         <v>65</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -5343,7 +5387,7 @@
         <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
@@ -5367,13 +5411,13 @@
         <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -346,6 +346,12 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/654078399768185/</t>
   </si>
   <si>
+    <t>長角黃山蟻</t>
+  </si>
+  <si>
+    <t>Paratrechina_longicornis</t>
+  </si>
+  <si>
     <t>汀州路四段師大分布側門</t>
   </si>
   <si>
@@ -550,12 +556,6 @@
   </si>
   <si>
     <t>每年3-4月都會上車</t>
-  </si>
-  <si>
-    <t>長角黃山蟻</t>
-  </si>
-  <si>
-    <t>Paratrechina_longicornis</t>
   </si>
   <si>
     <t>新竹清華大學生命科學院後停車場</t>
@@ -734,9 +734,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -780,16 +780,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,75 +802,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,9 +833,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,6 +845,74 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -931,79 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,85 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +967,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,11 +1140,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,17 +1182,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,21 +1203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1222,6 +1213,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1230,10 +1230,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,131 +1249,131 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,9 +1474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1800,8 +1797,8 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2477,7 +2474,7 @@
       <c r="R11" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2494,6 +2491,15 @@
       <c r="D12" s="21">
         <v>72</v>
       </c>
+      <c r="E12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>77</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>55</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K12" s="6">
         <v>121.536392</v>
@@ -2525,10 +2531,10 @@
         <v>81</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2568,10 +2574,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2579,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2587,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2595,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2603,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2611,7 +2617,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2619,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2627,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2635,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2643,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -2652,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -2661,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -2670,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2678,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -2687,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2695,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2703,7 +2709,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2711,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2719,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2727,7 +2733,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2740,42 +2746,42 @@
     </row>
     <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="35" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" ht="35" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" ht="35" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2796,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E31" sqref="E31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2827,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -2889,7 +2895,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -2907,7 +2913,7 @@
         <v>65</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
@@ -2916,7 +2922,7 @@
         <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
@@ -2931,13 +2937,13 @@
         <v>65</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2951,7 +2957,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2969,7 +2975,7 @@
         <v>65</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
@@ -2993,13 +2999,13 @@
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3013,13 +3019,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -3031,7 +3037,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
@@ -3055,13 +3061,13 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:20">
@@ -3075,13 +3081,13 @@
         <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -3090,10 +3096,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="11">
         <v>121.618935</v>
@@ -3117,13 +3123,13 @@
         <v>65</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:20">
@@ -3134,10 +3140,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -3155,7 +3161,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
@@ -3185,7 +3191,7 @@
         <v>65</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:20">
@@ -3199,16 +3205,16 @@
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>77</v>
@@ -3217,7 +3223,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="11">
         <v>120.603</v>
@@ -3241,13 +3247,13 @@
         <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:20">
@@ -3261,7 +3267,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -3279,7 +3285,7 @@
         <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K8" s="11">
         <v>120.68601108018</v>
@@ -3309,7 +3315,7 @@
         <v>65</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:20">
@@ -3323,7 +3329,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -3341,7 +3347,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
@@ -3371,7 +3377,7 @@
         <v>65</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3385,7 +3391,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -3403,7 +3409,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
@@ -3412,7 +3418,7 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
@@ -3427,13 +3433,13 @@
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:20">
@@ -3447,13 +3453,13 @@
         <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -3465,7 +3471,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K11" s="11">
         <v>121.259460451407</v>
@@ -3489,13 +3495,13 @@
         <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:20">
@@ -3509,13 +3515,13 @@
         <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -3557,7 +3563,7 @@
         <v>65</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3571,13 +3577,13 @@
         <v>65</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>23</v>
@@ -3619,7 +3625,7 @@
         <v>65</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3633,7 +3639,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -3681,7 +3687,7 @@
         <v>65</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3695,7 +3701,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -3743,7 +3749,7 @@
         <v>65</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:20">
@@ -3757,13 +3763,13 @@
         <v>65</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -3805,7 +3811,7 @@
         <v>65</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:20">
@@ -3819,7 +3825,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3867,7 +3873,7 @@
         <v>65</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:20">
@@ -3881,16 +3887,16 @@
         <v>65</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
@@ -3929,7 +3935,7 @@
         <v>65</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3991,7 +3997,7 @@
         <v>65</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:20">
@@ -4005,7 +4011,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>167</v>
@@ -4014,7 +4020,7 @@
         <v>168</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
@@ -4053,7 +4059,7 @@
         <v>65</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:20">
@@ -4067,7 +4073,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -4115,7 +4121,7 @@
         <v>65</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -4129,7 +4135,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -4177,7 +4183,7 @@
         <v>65</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -4239,7 +4245,7 @@
         <v>65</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -4253,13 +4259,13 @@
         <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>23</v>
@@ -4301,7 +4307,7 @@
         <v>65</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:20">
@@ -4315,7 +4321,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>163</v>
@@ -4363,7 +4369,7 @@
         <v>65</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:20">
@@ -4377,7 +4383,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -4425,7 +4431,7 @@
         <v>65</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:20">
@@ -4439,7 +4445,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>163</v>
@@ -4487,7 +4493,7 @@
         <v>65</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:20">
@@ -4501,7 +4507,7 @@
         <v>179</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>163</v>
@@ -4549,7 +4555,7 @@
         <v>65</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:20">
@@ -4563,7 +4569,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4611,7 +4617,7 @@
         <v>65</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:20">
@@ -4625,7 +4631,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4673,7 +4679,7 @@
         <v>65</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:20">
@@ -4687,13 +4693,13 @@
         <v>65</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
@@ -4735,7 +4741,7 @@
         <v>65</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4749,7 +4755,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4797,7 +4803,7 @@
         <v>65</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4811,7 +4817,7 @@
         <v>65</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>188</v>
@@ -4859,7 +4865,7 @@
         <v>65</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4873,7 +4879,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>188</v>
@@ -4921,7 +4927,7 @@
         <v>65</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4935,13 +4941,13 @@
         <v>65</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -4983,7 +4989,7 @@
         <v>65</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4997,7 +5003,7 @@
         <v>65</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -5045,7 +5051,7 @@
         <v>65</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -5059,7 +5065,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -5107,7 +5113,7 @@
         <v>65</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5121,7 +5127,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -5169,7 +5175,7 @@
         <v>65</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -5183,7 +5189,7 @@
         <v>65</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -5231,7 +5237,7 @@
         <v>65</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5245,7 +5251,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -5293,7 +5299,7 @@
         <v>65</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5307,7 +5313,7 @@
         <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -5355,7 +5361,7 @@
         <v>65</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5369,13 +5375,13 @@
         <v>65</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -5417,7 +5423,7 @@
         <v>65</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A603ADC-D993-8047-B281-BF9DD7E58371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="19700" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -194,7 +200,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>or</t>
     </r>
@@ -238,7 +244,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>or</t>
     </r>
@@ -708,40 +714,61 @@
     <t>南投縣埔里台一度假村旁711</t>
   </si>
   <si>
+    <t>花蓮富里鄉</t>
+  </si>
+  <si>
+    <t>黑車，水泥路，有樹遮蔭但沒有接觸到植物</t>
+  </si>
+  <si>
+    <t>南投惠蓀關刀山林道</t>
+  </si>
+  <si>
+    <t>台中市北屯區昌平路二段</t>
+  </si>
+  <si>
+    <t>藍色，停路邊和地下室</t>
+  </si>
+  <si>
+    <t>台東</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>回台中市沙鹿區福成路</t>
-  </si>
-  <si>
-    <t>花蓮富里鄉</t>
-  </si>
-  <si>
-    <t>黑車，水泥路，有樹遮蔭但沒有接觸到植物</t>
-  </si>
-  <si>
-    <t>南投惠蓀關刀山林道</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市沙鹿</t>
   </si>
   <si>
     <t>白車，回科博館，有草，短短的，不高。</t>
-  </si>
-  <si>
-    <t>台中市北屯區昌平路二段</t>
-  </si>
-  <si>
-    <t>藍色，停路邊和地下室</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市北區</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市南區</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="10">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -751,20 +778,20 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -777,146 +804,35 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,194 +845,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1124,256 +854,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1464,74 +955,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1789,44 +1243,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.725" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.45625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.0875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.63125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.0875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="26.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.45625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.26875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.18125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.3625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.45625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.0875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="77.81875" style="22" customWidth="1"/>
-    <col min="19" max="19" width="67.63125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.725" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="26.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="6" customWidth="1"/>
+    <col min="13" max="13" width="25.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="77.875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="67.625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.75" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="19">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1920,10 +1374,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.991599</v>
+        <v>120.99159899999999</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686784</v>
+        <v>22.686783999999999</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>27</v>
@@ -1932,7 +1386,7 @@
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.6887400162283</v>
+        <v>24.688740016228301</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1947,7 +1401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1979,7 +1433,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.795442</v>
+        <v>120.79544199999999</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -2006,7 +1460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2038,10 +1492,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804</v>
+        <v>120.55804000000001</v>
       </c>
       <c r="L4" s="6">
-        <v>24.06537</v>
+        <v>24.065370000000001</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
@@ -2065,7 +1519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2100,7 +1554,7 @@
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188</v>
+        <v>24.052188000000001</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>44</v>
@@ -2124,7 +1578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2159,16 +1613,16 @@
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.94475</v>
+        <v>23.944749999999999</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.682886435026</v>
+        <v>120.68288643502601</v>
       </c>
       <c r="O6" s="6">
-        <v>24.1842020704196</v>
+        <v>24.184202070419602</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -2183,7 +1637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2218,7 +1672,7 @@
         <v>120.952707</v>
       </c>
       <c r="L7" s="6">
-        <v>23.969026</v>
+        <v>23.969025999999999</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>56</v>
@@ -2227,7 +1681,7 @@
         <v>120.610146611658</v>
       </c>
       <c r="O7" s="6">
-        <v>23.9709784614056</v>
+        <v>23.970978461405601</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>45</v>
@@ -2242,7 +1696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2277,7 +1731,7 @@
         <v>121.003519</v>
       </c>
       <c r="L8" s="6">
-        <v>24.08028</v>
+        <v>24.080279999999998</v>
       </c>
       <c r="M8" s="28" t="s">
         <v>61</v>
@@ -2286,7 +1740,7 @@
         <v>120.662462331881</v>
       </c>
       <c r="O8" s="6">
-        <v>24.1214546035866</v>
+        <v>24.121454603586599</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>45</v>
@@ -2301,7 +1755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2336,7 +1790,7 @@
         <v>120.800281</v>
       </c>
       <c r="L9" s="6">
-        <v>23.828552</v>
+        <v>23.828551999999998</v>
       </c>
       <c r="M9" s="22" t="s">
         <v>65</v>
@@ -2360,7 +1814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2392,10 +1846,10 @@
         <v>71</v>
       </c>
       <c r="K10" s="6">
-        <v>120.7744779</v>
+        <v>120.77447789999999</v>
       </c>
       <c r="L10" s="6">
-        <v>23.7493116</v>
+        <v>23.749311599999999</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>65</v>
@@ -2419,7 +1873,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2454,7 +1908,7 @@
         <v>121.3147845</v>
       </c>
       <c r="L11" s="6">
-        <v>24.9900554</v>
+        <v>24.990055399999999</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>80</v>
@@ -2463,7 +1917,7 @@
         <v>121.336737259589</v>
       </c>
       <c r="O11" s="6">
-        <v>24.998169671502</v>
+        <v>24.998169671502001</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>65</v>
@@ -2478,7 +1932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2510,10 +1964,10 @@
         <v>86</v>
       </c>
       <c r="K12" s="6">
-        <v>121.536392</v>
+        <v>121.53639200000001</v>
       </c>
       <c r="L12" s="6">
-        <v>25.006433</v>
+        <v>25.006433000000001</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>65</v>
@@ -2538,41 +1992,40 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
-    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
-    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
-    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
-    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
-    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
-    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
-    <hyperlink ref="S9" r:id="rId8" display="https://www.facebook.com/groups/577051257470900/permalink/653396816503010/"/>
-    <hyperlink ref="S10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
-    <hyperlink ref="S11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
-    <hyperlink ref="S12" r:id="rId11" display="https://www.facebook.com/groups/577051257470900/permalink/657758346066857/"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.45625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="79.0875" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>89</v>
       </c>
@@ -2580,7 +2033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +2049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2604,7 +2057,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2612,7 +2065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +2073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2636,7 +2089,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2671,7 +2124,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2141,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2696,7 +2149,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2744,7 +2197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="87.5" spans="1:2">
+    <row r="22" spans="1:2" ht="95">
       <c r="A22" s="18" t="s">
         <v>110</v>
       </c>
@@ -2752,7 +2205,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" ht="122.5" spans="1:2">
+    <row r="23" spans="1:2" ht="133">
       <c r="A23" s="18" t="s">
         <v>112</v>
       </c>
@@ -2760,7 +2213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" ht="35" spans="1:2">
+    <row r="24" spans="1:2" ht="38">
       <c r="A24" s="18" t="s">
         <v>114</v>
       </c>
@@ -2768,7 +2221,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:2">
+    <row r="25" spans="1:2" ht="38">
       <c r="A25" s="18" t="s">
         <v>116</v>
       </c>
@@ -2776,7 +2229,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" ht="35" spans="1:2">
+    <row r="26" spans="1:2" ht="38">
       <c r="A26" s="18" t="s">
         <v>118</v>
       </c>
@@ -2785,41 +2238,40 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:G31"/>
+    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="88" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.45625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.26875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.0875" customWidth="1"/>
-    <col min="5" max="5" width="17.0875" customWidth="1"/>
-    <col min="6" max="6" width="25.45625" customWidth="1"/>
-    <col min="7" max="7" width="14.63125" customWidth="1"/>
-    <col min="8" max="8" width="14.45625" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="42" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.81875" customWidth="1"/>
-    <col min="12" max="12" width="16.63125" customWidth="1"/>
-    <col min="13" max="13" width="11.0875" customWidth="1"/>
-    <col min="14" max="14" width="15.3625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.63125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="5" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="13.63125" customWidth="1"/>
-    <col min="18" max="18" width="77.90625" customWidth="1"/>
-    <col min="19" max="19" width="8.81875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.81875" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="77.875" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2919,7 +2371,7 @@
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.9147099644175</v>
+        <v>23.914709964417501</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>123</v>
@@ -2928,7 +2380,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.6744337598374</v>
+        <v>22.674433759837399</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>65</v>
@@ -2981,7 +2433,7 @@
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.7781010661178</v>
+        <v>24.778101066117799</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>65</v>
@@ -3043,16 +2495,16 @@
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.0929920370014</v>
+        <v>24.092992037001402</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>65</v>
+        <v>209</v>
+      </c>
+      <c r="N4" s="34">
+        <v>121.39103900000001</v>
+      </c>
+      <c r="O4" s="15">
+        <v>25.083033</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>45</v>
@@ -3070,7 +2522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    <row r="5" spans="1:20" s="1" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3102,7 +2554,7 @@
         <v>137</v>
       </c>
       <c r="K5" s="11">
-        <v>121.618935</v>
+        <v>121.61893499999999</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
@@ -3132,7 +2584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:20">
+    <row r="6" spans="1:20" s="1" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3167,7 +2619,7 @@
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.9657797250651</v>
+        <v>21.965779725065101</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>65</v>
@@ -3194,7 +2646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:20">
+    <row r="7" spans="1:20" s="1" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3226,10 +2678,10 @@
         <v>145</v>
       </c>
       <c r="K7" s="11">
-        <v>120.603</v>
+        <v>120.60299999999999</v>
       </c>
       <c r="L7" s="11">
-        <v>22.64866667</v>
+        <v>22.648666670000001</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>65</v>
@@ -3256,7 +2708,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:20">
+    <row r="8" spans="1:20" s="1" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3288,7 +2740,7 @@
         <v>147</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108018</v>
+        <v>120.68601108017999</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
@@ -3318,7 +2770,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:20">
+    <row r="9" spans="1:20" s="1" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3353,7 +2805,7 @@
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.9496602216195</v>
+        <v>23.949660221619499</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>65</v>
@@ -3415,16 +2867,16 @@
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.8354244334485</v>
+        <v>23.835424433448502</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="15">
-        <v>120.493599095617</v>
+        <v>208</v>
+      </c>
+      <c r="N10" s="34">
+        <v>121.199268</v>
       </c>
       <c r="O10" s="15">
-        <v>22.6744337598374</v>
+        <v>23.108854999999998</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>65</v>
@@ -3442,7 +2894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:20">
+    <row r="11" spans="1:20" s="1" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3474,7 +2926,7 @@
         <v>151</v>
       </c>
       <c r="K11" s="11">
-        <v>121.259460451407</v>
+        <v>121.25946045140699</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
@@ -3504,7 +2956,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:20">
+    <row r="12" spans="1:20" s="1" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3539,7 +2991,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>65</v>
@@ -3601,7 +3053,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>65</v>
@@ -3663,7 +3115,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>65</v>
@@ -3725,7 +3177,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>65</v>
@@ -3752,7 +3204,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:20">
+    <row r="16" spans="1:20" s="1" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3787,7 +3239,7 @@
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.8011983846292</v>
+        <v>22.801198384629199</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>65</v>
@@ -3814,7 +3266,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:20">
+    <row r="17" spans="1:20" s="1" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3849,7 +3301,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>65</v>
@@ -3876,7 +3328,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:20">
+    <row r="18" spans="1:20" s="1" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3911,7 +3363,7 @@
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.57430556</v>
+        <v>24.574305559999999</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>65</v>
@@ -3973,7 +3425,7 @@
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274</v>
+        <v>24.274000000000001</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>65</v>
@@ -4000,7 +3452,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:20">
+    <row r="20" spans="1:20" s="1" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4035,7 +3487,7 @@
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.9447845618742</v>
+        <v>24.944784561874201</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>65</v>
@@ -4062,7 +3514,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:20">
+    <row r="21" spans="1:20" s="1" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4159,7 +3611,7 @@
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.8649864324543</v>
+        <v>23.864986432454302</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>65</v>
@@ -4218,10 +3670,10 @@
         <v>174</v>
       </c>
       <c r="K23" s="11">
-        <v>120.681643451365</v>
+        <v>120.68164345136501</v>
       </c>
       <c r="L23" s="11">
-        <v>24.1933684218396</v>
+        <v>24.193368421839601</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>65</v>
@@ -4283,7 +3735,7 @@
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.1458353609832</v>
+        <v>25.145835360983199</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>65</v>
@@ -4310,7 +3762,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:20">
+    <row r="25" spans="1:20" s="1" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4345,7 +3797,7 @@
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.1334697411457</v>
+        <v>22.133469741145699</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>65</v>
@@ -4372,7 +3824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:20">
+    <row r="26" spans="1:20" s="1" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4407,7 +3859,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>65</v>
@@ -4434,7 +3886,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:20">
+    <row r="27" spans="1:20" s="1" customFormat="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4496,7 +3948,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:20">
+    <row r="28" spans="1:20" s="1" customFormat="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4558,7 +4010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:20">
+    <row r="29" spans="1:20" s="1" customFormat="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4593,16 +4045,16 @@
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.08061169164</v>
+        <v>25.080611691640001</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>65</v>
+        <v>209</v>
+      </c>
+      <c r="N29" s="34">
+        <v>121.39103900000001</v>
+      </c>
+      <c r="O29" s="15">
+        <v>25.083033</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>65</v>
@@ -4620,7 +4072,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:20">
+    <row r="30" spans="1:20" s="1" customFormat="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4655,7 +4107,7 @@
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.9645079741834</v>
+        <v>23.964507974183402</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>65</v>
@@ -4682,7 +4134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:20">
+    <row r="31" spans="1:20" s="1" customFormat="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4714,10 +4166,10 @@
         <v>185</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016482</v>
+        <v>120.47220016481999</v>
       </c>
       <c r="L31" s="11">
-        <v>23.4778160137451</v>
+        <v>23.477816013745102</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>65</v>
@@ -4779,16 +4231,16 @@
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>65</v>
+        <v>208</v>
+      </c>
+      <c r="N32" s="34">
+        <v>121.199268</v>
+      </c>
+      <c r="O32" s="15">
+        <v>23.108854999999998</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>65</v>
@@ -4838,19 +4290,19 @@
         <v>190</v>
       </c>
       <c r="K33" s="11">
-        <v>121.675840396747</v>
+        <v>121.67584039674701</v>
       </c>
       <c r="L33" s="11">
-        <v>24.5908046853466</v>
+        <v>24.590804685346601</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>65</v>
+        <v>209</v>
+      </c>
+      <c r="N33" s="34">
+        <v>121.39103900000001</v>
+      </c>
+      <c r="O33" s="15">
+        <v>25.083033</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>66</v>
@@ -4903,7 +4355,7 @@
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.0347553435176</v>
+        <v>25.034755343517599</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>65</v>
@@ -4965,7 +4417,7 @@
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.7204842189591</v>
+        <v>24.720484218959101</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>65</v>
@@ -4977,7 +4429,7 @@
         <v>65</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>65</v>
@@ -5027,7 +4479,7 @@
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911496</v>
+        <v>23.831319911495999</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>65</v>
@@ -5054,7 +4506,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" ht="20">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -5089,16 +4541,16 @@
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>65</v>
+        <v>24.091411000000001</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="N37" s="15">
+        <v>120.67558</v>
+      </c>
+      <c r="O37" s="15">
+        <v>24.121393000000001</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>65</v>
@@ -5178,7 +4630,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" ht="20">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -5210,19 +4662,19 @@
         <v>202</v>
       </c>
       <c r="K39" s="11">
-        <v>121.006319901755</v>
+        <v>121.00631990175501</v>
       </c>
       <c r="L39" s="11">
-        <v>23.9781408122414</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>65</v>
+        <v>23.978140812241399</v>
+      </c>
+      <c r="M39" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="N39" s="34">
+        <v>120.56428</v>
+      </c>
+      <c r="O39" s="15">
+        <v>24.223341000000001</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>65</v>
@@ -5231,7 +4683,7 @@
         <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>65</v>
@@ -5269,13 +4721,13 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100578</v>
+        <v>23.100577999999999</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>65</v>
@@ -5293,7 +4745,7 @@
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>65</v>
@@ -5302,7 +4754,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" ht="20">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -5331,22 +4783,22 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.0866315</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>65</v>
+        <v>24.086631499999999</v>
+      </c>
+      <c r="M41" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" s="15">
+        <v>120.666963</v>
+      </c>
+      <c r="O41" s="15">
+        <v>24.157350999999998</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>65</v>
@@ -5355,7 +4807,7 @@
         <v>65</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>65</v>
@@ -5393,13 +4845,13 @@
         <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.1925474230372</v>
+        <v>24.192547423037201</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>65</v>
@@ -5417,7 +4869,7 @@
         <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>65</v>
@@ -5427,8 +4879,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A603ADC-D993-8047-B281-BF9DD7E58371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="19700" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18350" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -200,7 +194,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>or</t>
     </r>
@@ -244,7 +238,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>or</t>
     </r>
@@ -504,6 +498,9 @@
     <t>彰化市台灣化纖外圍</t>
   </si>
   <si>
+    <t>新北市林口</t>
+  </si>
+  <si>
     <t>天氣晴，構樹延伸貼上車子</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
     <t>南投集集投 27 鄉道</t>
   </si>
   <si>
+    <t>台東</t>
+  </si>
+  <si>
     <t>行道樹種植青剛櫟，一旁為廢棄果園，有一顆比較大的血桐延伸到馬路邊，從南投跟回台東</t>
   </si>
   <si>
@@ -702,6 +702,9 @@
     <t>惠蓀林場</t>
   </si>
   <si>
+    <t>台中市南區</t>
+  </si>
+  <si>
     <t>白車，有一半遮蔭的草地</t>
   </si>
   <si>
@@ -714,6 +717,12 @@
     <t>南投縣埔里台一度假村旁711</t>
   </si>
   <si>
+    <t>台中市沙鹿</t>
+  </si>
+  <si>
+    <t>回台中市沙鹿區福成路</t>
+  </si>
+  <si>
     <t>花蓮富里鄉</t>
   </si>
   <si>
@@ -723,52 +732,31 @@
     <t>南投惠蓀關刀山林道</t>
   </si>
   <si>
+    <t>台中市北區</t>
+  </si>
+  <si>
+    <t>白車，回科博館，有草，短短的，不高。</t>
+  </si>
+  <si>
     <t>台中市北屯區昌平路二段</t>
   </si>
   <si>
     <t>藍色，停路邊和地下室</t>
-  </si>
-  <si>
-    <t>台東</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市林口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回台中市沙鹿區福成路</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中市沙鹿</t>
-  </si>
-  <si>
-    <t>白車，回科博館，有草，短短的，不高。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中市北區</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中市南區</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="27">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -778,20 +766,32 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri Light"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -804,35 +804,152 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Wawati TC"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="major"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,8 +962,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -854,17 +1157,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,16 +1455,22 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -949,43 +1497,77 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1243,24 +1825,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="23" customWidth="1"/>
     <col min="5" max="5" width="20.125" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="6" customWidth="1"/>
@@ -1274,85 +1856,85 @@
     <col min="15" max="15" width="13.375" style="6" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="6" customWidth="1"/>
     <col min="17" max="17" width="13.125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="77.875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="77.875" style="24" customWidth="1"/>
     <col min="19" max="19" width="67.625" style="6" customWidth="1"/>
     <col min="20" max="20" width="21.75" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>20190517</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="23">
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1370,23 +1952,23 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="30" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.99159899999999</v>
+        <v>120.991599</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686783999999999</v>
-      </c>
-      <c r="M2" s="28" t="s">
+        <v>22.686784</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="6">
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.688740016228301</v>
+        <v>24.6887400162283</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1394,24 +1976,24 @@
       <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>20230222</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="23">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1433,7 +2015,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.79544199999999</v>
+        <v>120.795442</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -1453,24 +2035,24 @@
       <c r="Q3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>20230524</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="23">
         <v>31.5</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1492,18 +2074,18 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804000000001</v>
+        <v>120.55804</v>
       </c>
       <c r="L4" s="6">
-        <v>24.065370000000001</v>
-      </c>
-      <c r="M4" s="22" t="s">
+        <v>24.06537</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="6">
         <v>120.557600375419</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="24">
         <v>24.0656320952287</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -1512,24 +2094,24 @@
       <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:19">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>20230527</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="23">
         <v>4.5</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1547,16 +2129,16 @@
       <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="30" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="6">
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188000000001</v>
-      </c>
-      <c r="M5" s="28" t="s">
+        <v>24.052188</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="6">
@@ -1571,24 +2153,24 @@
       <c r="Q5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:19">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>20230702</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="23">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1606,23 +2188,23 @@
       <c r="I6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="24">
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.944749999999999</v>
-      </c>
-      <c r="M6" s="28" t="s">
+        <v>23.94475</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.68288643502601</v>
+        <v>120.682886435026</v>
       </c>
       <c r="O6" s="6">
-        <v>24.184202070419602</v>
+        <v>24.1842020704196</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -1630,24 +2212,24 @@
       <c r="Q6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:19">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>20230704</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="23">
         <v>120</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1665,23 +2247,23 @@
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="30" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="6">
         <v>120.952707</v>
       </c>
       <c r="L7" s="6">
-        <v>23.969025999999999</v>
-      </c>
-      <c r="M7" s="22" t="s">
+        <v>23.969026</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="6">
         <v>120.610146611658</v>
       </c>
       <c r="O7" s="6">
-        <v>23.970978461405601</v>
+        <v>23.9709784614056</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>45</v>
@@ -1692,21 +2274,21 @@
       <c r="R7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:19">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>20230723</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="23">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1724,23 +2306,23 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="30" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="6">
         <v>121.003519</v>
       </c>
       <c r="L8" s="6">
-        <v>24.080279999999998</v>
-      </c>
-      <c r="M8" s="28" t="s">
+        <v>24.08028</v>
+      </c>
+      <c r="M8" s="30" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="6">
         <v>120.662462331881</v>
       </c>
       <c r="O8" s="6">
-        <v>24.121454603586599</v>
+        <v>24.1214546035866</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>45</v>
@@ -1748,24 +2330,24 @@
       <c r="Q8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:19">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>20230808</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="23">
         <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1777,54 +2359,54 @@
       <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="24" t="s">
         <v>64</v>
       </c>
       <c r="K9" s="6">
         <v>120.800281</v>
       </c>
       <c r="L9" s="6">
-        <v>23.828551999999998</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="22" t="s">
+        <v>23.828552</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:19">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>20230810</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1836,57 +2418,57 @@
       <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="24" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="6">
-        <v>120.77447789999999</v>
+        <v>120.7744779</v>
       </c>
       <c r="L10" s="6">
-        <v>23.749311599999999</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="22" t="s">
+        <v>23.7493116</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:19">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>20230807</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="23">
         <v>72</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1901,23 +2483,23 @@
       <c r="I11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="30" t="s">
         <v>79</v>
       </c>
       <c r="K11" s="6">
         <v>121.3147845</v>
       </c>
       <c r="L11" s="6">
-        <v>24.990055399999999</v>
-      </c>
-      <c r="M11" s="28" t="s">
+        <v>24.9900554</v>
+      </c>
+      <c r="M11" s="30" t="s">
         <v>80</v>
       </c>
       <c r="N11" s="6">
         <v>121.336737259589</v>
       </c>
       <c r="O11" s="6">
-        <v>24.998169671502001</v>
+        <v>24.998169671502</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>65</v>
@@ -1925,24 +2507,24 @@
       <c r="Q11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:19">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>20230331</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="23">
         <v>72</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1960,14 +2542,14 @@
       <c r="I12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="30" t="s">
         <v>86</v>
       </c>
       <c r="K12" s="6">
-        <v>121.53639200000001</v>
+        <v>121.536392</v>
       </c>
       <c r="L12" s="6">
-        <v>25.006433000000001</v>
+        <v>25.006433</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>65</v>
@@ -1984,7 +2566,7 @@
       <c r="Q12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="28" t="s">
+      <c r="R12" s="30" t="s">
         <v>87</v>
       </c>
       <c r="S12" s="33" t="s">
@@ -1992,48 +2574,49 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
+    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
+    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
+    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
+    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
+    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
+    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
+    <hyperlink ref="S9" r:id="rId8" display="https://www.facebook.com/groups/577051257470900/permalink/653396816503010/"/>
+    <hyperlink ref="S10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
+    <hyperlink ref="S11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
+    <hyperlink ref="S12" r:id="rId11" display="https://www.facebook.com/groups/577051257470900/permalink/657758346066857/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2632,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2664,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2687,7 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -2113,7 +2696,7 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
@@ -2122,9 +2705,9 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2139,9 +2722,9 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2149,7 +2732,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2197,61 +2780,62 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="95">
-      <c r="A22" s="18" t="s">
+    <row r="22" ht="87.5" spans="1:2">
+      <c r="A22" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="133">
-      <c r="A23" s="18" t="s">
+    <row r="23" ht="122.5" spans="1:2">
+      <c r="A23" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="38">
-      <c r="A24" s="18" t="s">
+    <row r="24" ht="35" spans="1:2">
+      <c r="A24" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="38">
-      <c r="A25" s="18" t="s">
+    <row r="25" ht="35" spans="1:2">
+      <c r="A25" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38">
-      <c r="A26" s="18" t="s">
+    <row r="26" ht="35" spans="1:2">
+      <c r="A26" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="21" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="88" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
@@ -2371,7 +2955,7 @@
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.914709964417501</v>
+        <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>123</v>
@@ -2380,7 +2964,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.674433759837399</v>
+        <v>22.6744337598374</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>65</v>
@@ -2433,7 +3017,7 @@
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.778101066117799</v>
+        <v>24.7781010661178</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>65</v>
@@ -2495,13 +3079,13 @@
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.092992037001402</v>
+        <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="N4" s="34">
-        <v>121.39103900000001</v>
+        <v>133</v>
+      </c>
+      <c r="N4" s="16">
+        <v>121.391039</v>
       </c>
       <c r="O4" s="15">
         <v>25.083033</v>
@@ -2513,7 +3097,7 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>65</v>
@@ -2522,7 +3106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:20">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2536,10 +3120,10 @@
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -2548,13 +3132,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="11">
-        <v>121.61893499999999</v>
+        <v>121.618935</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
@@ -2575,7 +3159,7 @@
         <v>65</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>65</v>
@@ -2584,7 +3168,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:20">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2592,10 +3176,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -2613,13 +3197,13 @@
         <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.965779725065101</v>
+        <v>21.9657797250651</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>65</v>
@@ -2646,7 +3230,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:20">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2657,16 +3241,16 @@
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>77</v>
@@ -2675,13 +3259,13 @@
         <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="11">
-        <v>120.60299999999999</v>
+        <v>120.603</v>
       </c>
       <c r="L7" s="11">
-        <v>22.648666670000001</v>
+        <v>22.64866667</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>65</v>
@@ -2699,7 +3283,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>65</v>
@@ -2708,7 +3292,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:20">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2719,7 +3303,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2737,10 +3321,10 @@
         <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108017999</v>
+        <v>120.68601108018</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
@@ -2770,7 +3354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:20">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2781,7 +3365,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -2799,13 +3383,13 @@
         <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.949660221619499</v>
+        <v>23.9496602216195</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>65</v>
@@ -2861,22 +3445,22 @@
         <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.835424433448502</v>
+        <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="N10" s="34">
+        <v>151</v>
+      </c>
+      <c r="N10" s="16">
         <v>121.199268</v>
       </c>
       <c r="O10" s="15">
-        <v>23.108854999999998</v>
+        <v>23.108855</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>65</v>
@@ -2885,7 +3469,7 @@
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>65</v>
@@ -2894,7 +3478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:20">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2923,10 +3507,10 @@
         <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K11" s="11">
-        <v>121.25946045140699</v>
+        <v>121.259460451407</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
@@ -2947,7 +3531,7 @@
         <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>65</v>
@@ -2956,7 +3540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:20">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2967,7 +3551,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>84</v>
@@ -2985,13 +3569,13 @@
         <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>65</v>
@@ -3047,13 +3631,13 @@
         <v>65</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>65</v>
@@ -3071,7 +3655,7 @@
         <v>65</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>65</v>
@@ -3109,13 +3693,13 @@
         <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>65</v>
@@ -3133,7 +3717,7 @@
         <v>65</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>65</v>
@@ -3171,13 +3755,13 @@
         <v>65</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>65</v>
@@ -3204,7 +3788,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:20">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3233,13 +3817,13 @@
         <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.801198384629199</v>
+        <v>22.8011983846292</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>65</v>
@@ -3257,7 +3841,7 @@
         <v>65</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>65</v>
@@ -3266,7 +3850,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:20">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3277,7 +3861,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3295,13 +3879,13 @@
         <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>65</v>
@@ -3319,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>65</v>
@@ -3328,7 +3912,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:20">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3342,13 +3926,13 @@
         <v>126</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
@@ -3357,13 +3941,13 @@
         <v>65</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.574305559999999</v>
+        <v>24.57430556</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>65</v>
@@ -3381,7 +3965,7 @@
         <v>65</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>65</v>
@@ -3398,16 +3982,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3419,13 +4003,13 @@
         <v>65</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274000000000001</v>
+        <v>24.274</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>65</v>
@@ -3443,7 +4027,7 @@
         <v>65</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>65</v>
@@ -3452,7 +4036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:20">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3466,13 +4050,13 @@
         <v>126</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
@@ -3481,13 +4065,13 @@
         <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.944784561874201</v>
+        <v>24.9447845618742</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>65</v>
@@ -3505,7 +4089,7 @@
         <v>65</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>65</v>
@@ -3514,7 +4098,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:20">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3543,7 +4127,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -3567,7 +4151,7 @@
         <v>65</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>65</v>
@@ -3605,13 +4189,13 @@
         <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.864986432454302</v>
+        <v>23.8649864324543</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>65</v>
@@ -3667,13 +4251,13 @@
         <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K23" s="11">
-        <v>120.68164345136501</v>
+        <v>120.681643451365</v>
       </c>
       <c r="L23" s="11">
-        <v>24.193368421839601</v>
+        <v>24.1933684218396</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>65</v>
@@ -3691,7 +4275,7 @@
         <v>65</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>65</v>
@@ -3729,13 +4313,13 @@
         <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.145835360983199</v>
+        <v>25.1458353609832</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>65</v>
@@ -3762,7 +4346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1">
+    <row r="25" s="1" customFormat="1" spans="1:20">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3776,10 +4360,10 @@
         <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -3791,13 +4375,13 @@
         <v>65</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.133469741145699</v>
+        <v>22.1334697411457</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>65</v>
@@ -3824,7 +4408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="1" customFormat="1">
+    <row r="26" s="1" customFormat="1" spans="1:20">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3853,13 +4437,13 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>65</v>
@@ -3877,7 +4461,7 @@
         <v>65</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>65</v>
@@ -3886,7 +4470,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="1" customFormat="1">
+    <row r="27" s="1" customFormat="1" spans="1:20">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3900,10 +4484,10 @@
         <v>121</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -3915,7 +4499,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -3948,7 +4532,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="1" customFormat="1">
+    <row r="28" s="1" customFormat="1" spans="1:20">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3956,16 +4540,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -3977,7 +4561,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -4010,7 +4594,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:20">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4021,7 +4605,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4039,19 +4623,19 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.080611691640001</v>
+        <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="N29" s="34">
-        <v>121.39103900000001</v>
+        <v>133</v>
+      </c>
+      <c r="N29" s="16">
+        <v>121.391039</v>
       </c>
       <c r="O29" s="15">
         <v>25.083033</v>
@@ -4063,7 +4647,7 @@
         <v>65</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>65</v>
@@ -4072,7 +4656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1">
+    <row r="30" s="1" customFormat="1" spans="1:20">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4083,7 +4667,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4101,13 +4685,13 @@
         <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.964507974183402</v>
+        <v>23.9645079741834</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>65</v>
@@ -4125,7 +4709,7 @@
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>65</v>
@@ -4134,7 +4718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1">
+    <row r="31" s="1" customFormat="1" spans="1:20">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4163,13 +4747,13 @@
         <v>65</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016481999</v>
+        <v>120.47220016482</v>
       </c>
       <c r="L31" s="11">
-        <v>23.477816013745102</v>
+        <v>23.4778160137451</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>65</v>
@@ -4187,7 +4771,7 @@
         <v>65</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>65</v>
@@ -4225,22 +4809,22 @@
         <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="N32" s="34">
+        <v>151</v>
+      </c>
+      <c r="N32" s="16">
         <v>121.199268</v>
       </c>
       <c r="O32" s="15">
-        <v>23.108854999999998</v>
+        <v>23.108855</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>65</v>
@@ -4249,7 +4833,7 @@
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>65</v>
@@ -4272,10 +4856,10 @@
         <v>121</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4287,19 +4871,19 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K33" s="11">
-        <v>121.67584039674701</v>
+        <v>121.675840396747</v>
       </c>
       <c r="L33" s="11">
-        <v>24.590804685346601</v>
+        <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="N33" s="34">
-        <v>121.39103900000001</v>
+        <v>133</v>
+      </c>
+      <c r="N33" s="16">
+        <v>121.391039</v>
       </c>
       <c r="O33" s="15">
         <v>25.083033</v>
@@ -4311,7 +4895,7 @@
         <v>65</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>65</v>
@@ -4334,10 +4918,10 @@
         <v>129</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -4349,13 +4933,13 @@
         <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.034755343517599</v>
+        <v>25.0347553435176</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>65</v>
@@ -4373,7 +4957,7 @@
         <v>65</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>65</v>
@@ -4411,13 +4995,13 @@
         <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.720484218959101</v>
+        <v>24.7204842189591</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>65</v>
@@ -4429,13 +5013,13 @@
         <v>65</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>65</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>65</v>
@@ -4473,13 +5057,13 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911495999</v>
+        <v>23.831319911496</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>65</v>
@@ -4497,7 +5081,7 @@
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>65</v>
@@ -4506,7 +5090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="20">
+    <row r="37" ht="18.5" spans="1:20">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -4517,7 +5101,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -4535,22 +5119,22 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411000000001</v>
-      </c>
-      <c r="M37" s="35" t="s">
-        <v>214</v>
+        <v>24.091411</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="N37" s="15">
         <v>120.67558</v>
       </c>
       <c r="O37" s="15">
-        <v>24.121393000000001</v>
+        <v>24.121393</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>65</v>
@@ -4559,7 +5143,7 @@
         <v>65</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>65</v>
@@ -4597,7 +5181,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -4621,7 +5205,7 @@
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>65</v>
@@ -4630,7 +5214,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="20">
+    <row r="39" ht="18.5" spans="1:20">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -4659,22 +5243,22 @@
         <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K39" s="11">
-        <v>121.00631990175501</v>
+        <v>121.006319901755</v>
       </c>
       <c r="L39" s="11">
-        <v>23.978140812241399</v>
-      </c>
-      <c r="M39" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="N39" s="34">
+        <v>23.9781408122414</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" s="16">
         <v>120.56428</v>
       </c>
       <c r="O39" s="15">
-        <v>24.223341000000001</v>
+        <v>24.223341</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>65</v>
@@ -4683,7 +5267,7 @@
         <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>65</v>
@@ -4703,7 +5287,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -4721,13 +5305,13 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100577999999999</v>
+        <v>23.100578</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>65</v>
@@ -4745,7 +5329,7 @@
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>65</v>
@@ -4754,7 +5338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="20">
+    <row r="41" ht="18.5" spans="1:20">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -4765,7 +5349,7 @@
         <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -4783,22 +5367,22 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.086631499999999</v>
-      </c>
-      <c r="M41" s="35" t="s">
-        <v>213</v>
+        <v>24.0866315</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="N41" s="15">
         <v>120.666963</v>
       </c>
       <c r="O41" s="15">
-        <v>24.157350999999998</v>
+        <v>24.157351</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>65</v>
@@ -4845,13 +5429,13 @@
         <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.192547423037201</v>
+        <v>24.1925474230372</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>65</v>
@@ -4869,7 +5453,7 @@
         <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>65</v>
@@ -4879,8 +5463,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6900" activeTab="2"/>
+    <workbookView windowWidth="8380" windowHeight="1410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -941,12 +941,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2831,8 +2825,8 @@
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>

--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDB1A48-DB9B-9B41-82D2-DB85E9428BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="8380" windowHeight="1410" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15920" windowHeight="15480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="217">
   <si>
     <t>ID</t>
   </si>
@@ -194,7 +200,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>or</t>
     </r>
@@ -238,7 +244,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>or</t>
     </r>
@@ -743,20 +749,24 @@
   <si>
     <t>藍色，停路邊和地下室</t>
   </si>
+  <si>
+    <t>Brood</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="10">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -766,18 +776,18 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri Light"/>
-      <charset val="136"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -785,13 +795,13 @@
       <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -804,146 +814,22 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,194 +842,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1151,253 +851,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
@@ -1458,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1497,71 +958,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1819,19 +1237,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
@@ -1856,7 +1274,7 @@
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="19">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1950,10 +1368,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.991599</v>
+        <v>120.99159899999999</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686784</v>
+        <v>22.686783999999999</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>27</v>
@@ -1962,7 +1380,7 @@
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.6887400162283</v>
+        <v>24.688740016228301</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1977,7 +1395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2009,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.795442</v>
+        <v>120.79544199999999</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -2036,7 +1454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2068,10 +1486,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804</v>
+        <v>120.55804000000001</v>
       </c>
       <c r="L4" s="6">
-        <v>24.06537</v>
+        <v>24.065370000000001</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>38</v>
@@ -2095,7 +1513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2130,7 +1548,7 @@
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188</v>
+        <v>24.052188000000001</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>44</v>
@@ -2154,7 +1572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2189,16 +1607,16 @@
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.94475</v>
+        <v>23.944749999999999</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.682886435026</v>
+        <v>120.68288643502601</v>
       </c>
       <c r="O6" s="6">
-        <v>24.1842020704196</v>
+        <v>24.184202070419602</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -2213,7 +1631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2248,7 +1666,7 @@
         <v>120.952707</v>
       </c>
       <c r="L7" s="6">
-        <v>23.969026</v>
+        <v>23.969025999999999</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>56</v>
@@ -2257,7 +1675,7 @@
         <v>120.610146611658</v>
       </c>
       <c r="O7" s="6">
-        <v>23.9709784614056</v>
+        <v>23.970978461405601</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>45</v>
@@ -2272,7 +1690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2307,7 +1725,7 @@
         <v>121.003519</v>
       </c>
       <c r="L8" s="6">
-        <v>24.08028</v>
+        <v>24.080279999999998</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>61</v>
@@ -2316,7 +1734,7 @@
         <v>120.662462331881</v>
       </c>
       <c r="O8" s="6">
-        <v>24.1214546035866</v>
+        <v>24.121454603586599</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>45</v>
@@ -2331,7 +1749,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2366,7 +1784,7 @@
         <v>120.800281</v>
       </c>
       <c r="L9" s="6">
-        <v>23.828552</v>
+        <v>23.828551999999998</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>65</v>
@@ -2390,7 +1808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2422,10 +1840,10 @@
         <v>71</v>
       </c>
       <c r="K10" s="6">
-        <v>120.7744779</v>
+        <v>120.77447789999999</v>
       </c>
       <c r="L10" s="6">
-        <v>23.7493116</v>
+        <v>23.749311599999999</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>65</v>
@@ -2449,7 +1867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2484,7 +1902,7 @@
         <v>121.3147845</v>
       </c>
       <c r="L11" s="6">
-        <v>24.9900554</v>
+        <v>24.990055399999999</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>80</v>
@@ -2493,7 +1911,7 @@
         <v>121.336737259589</v>
       </c>
       <c r="O11" s="6">
-        <v>24.998169671502</v>
+        <v>24.998169671502001</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>65</v>
@@ -2508,7 +1926,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2540,10 +1958,10 @@
         <v>86</v>
       </c>
       <c r="K12" s="6">
-        <v>121.536392</v>
+        <v>121.53639200000001</v>
       </c>
       <c r="L12" s="6">
-        <v>25.006433</v>
+        <v>25.006433000000001</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>65</v>
@@ -2568,41 +1986,40 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
-    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
-    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
-    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
-    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
-    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
-    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
-    <hyperlink ref="S9" r:id="rId8" display="https://www.facebook.com/groups/577051257470900/permalink/653396816503010/"/>
-    <hyperlink ref="S10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
-    <hyperlink ref="S11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
-    <hyperlink ref="S12" r:id="rId11" display="https://www.facebook.com/groups/577051257470900/permalink/657758346066857/"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="23.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
@@ -2610,7 +2027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2035,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2634,7 +2051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2642,7 +2059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +2067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2658,7 +2075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2083,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2701,7 +2118,7 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2135,7 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2143,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="87.5" spans="1:2">
+    <row r="22" spans="1:2" ht="95">
       <c r="A22" s="20" t="s">
         <v>110</v>
       </c>
@@ -2782,7 +2199,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" ht="122.5" spans="1:2">
+    <row r="23" spans="1:2" ht="133">
       <c r="A23" s="20" t="s">
         <v>112</v>
       </c>
@@ -2790,7 +2207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" ht="35" spans="1:2">
+    <row r="24" spans="1:2" ht="38">
       <c r="A24" s="20" t="s">
         <v>114</v>
       </c>
@@ -2798,7 +2215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:2">
+    <row r="25" spans="1:2" ht="38">
       <c r="A25" s="20" t="s">
         <v>116</v>
       </c>
@@ -2806,7 +2223,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" ht="35" spans="1:2">
+    <row r="26" spans="1:2" ht="38">
       <c r="A26" s="20" t="s">
         <v>118</v>
       </c>
@@ -2815,21 +2232,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
@@ -2852,7 +2269,7 @@
     <col min="20" max="20" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +2331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2949,7 +2366,7 @@
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.9147099644175</v>
+        <v>23.914709964417501</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>123</v>
@@ -2958,7 +2375,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.6744337598374</v>
+        <v>22.674433759837399</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>65</v>
@@ -2976,7 +2393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3011,7 +2428,7 @@
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.7781010661178</v>
+        <v>24.778101066117799</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>65</v>
@@ -3038,7 +2455,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3073,13 +2490,13 @@
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.0929920370014</v>
+        <v>24.092992037001402</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>133</v>
       </c>
       <c r="N4" s="16">
-        <v>121.391039</v>
+        <v>121.39103900000001</v>
       </c>
       <c r="O4" s="15">
         <v>25.083033</v>
@@ -3100,7 +2517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3132,7 +2549,7 @@
         <v>138</v>
       </c>
       <c r="K5" s="11">
-        <v>121.618935</v>
+        <v>121.61893499999999</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
@@ -3161,8 +2578,11 @@
       <c r="T5" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:20">
+      <c r="U5" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3197,7 +2617,7 @@
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.9657797250651</v>
+        <v>21.965779725065101</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>65</v>
@@ -3224,7 +2644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:20">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3256,10 +2676,10 @@
         <v>146</v>
       </c>
       <c r="K7" s="11">
-        <v>120.603</v>
+        <v>120.60299999999999</v>
       </c>
       <c r="L7" s="11">
-        <v>22.64866667</v>
+        <v>22.648666670000001</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>65</v>
@@ -3285,8 +2705,11 @@
       <c r="T7" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:20">
+      <c r="U7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3318,7 +2741,7 @@
         <v>148</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108018</v>
+        <v>120.68601108017999</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
@@ -3348,7 +2771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:20">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3383,7 +2806,7 @@
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.9496602216195</v>
+        <v>23.949660221619499</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>65</v>
@@ -3410,7 +2833,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3445,7 +2868,7 @@
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.8354244334485</v>
+        <v>23.835424433448502</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>151</v>
@@ -3454,7 +2877,7 @@
         <v>121.199268</v>
       </c>
       <c r="O10" s="15">
-        <v>23.108855</v>
+        <v>23.108854999999998</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>65</v>
@@ -3472,7 +2895,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:20">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3504,7 +2927,7 @@
         <v>153</v>
       </c>
       <c r="K11" s="11">
-        <v>121.259460451407</v>
+        <v>121.25946045140699</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
@@ -3534,7 +2957,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:20">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3569,7 +2992,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>65</v>
@@ -3595,8 +3018,11 @@
       <c r="T12" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3631,7 +3057,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>65</v>
@@ -3657,8 +3083,11 @@
       <c r="T13" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3693,7 +3122,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>65</v>
@@ -3719,8 +3148,11 @@
       <c r="T14" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3755,7 +3187,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>65</v>
@@ -3782,7 +3214,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:20">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3817,7 +3249,7 @@
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.8011983846292</v>
+        <v>22.801198384629199</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>65</v>
@@ -3844,7 +3276,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:20">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3879,7 +3311,7 @@
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.7894203746766</v>
+        <v>24.789420374676599</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>65</v>
@@ -3906,7 +3338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:20">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3941,7 +3373,7 @@
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.57430556</v>
+        <v>24.574305559999999</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>65</v>
@@ -3967,8 +3399,11 @@
       <c r="T18" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4003,7 +3438,7 @@
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274</v>
+        <v>24.274000000000001</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>65</v>
@@ -4030,7 +3465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:20">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4065,7 +3500,7 @@
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.9447845618742</v>
+        <v>24.944784561874201</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>65</v>
@@ -4092,7 +3527,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:20">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4154,7 +3589,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -4189,7 +3624,7 @@
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.8649864324543</v>
+        <v>23.864986432454302</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>65</v>
@@ -4216,7 +3651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -4248,10 +3683,10 @@
         <v>176</v>
       </c>
       <c r="K23" s="11">
-        <v>120.681643451365</v>
+        <v>120.68164345136501</v>
       </c>
       <c r="L23" s="11">
-        <v>24.1933684218396</v>
+        <v>24.193368421839601</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>65</v>
@@ -4278,7 +3713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -4313,7 +3748,7 @@
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.1458353609832</v>
+        <v>25.145835360983199</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>65</v>
@@ -4340,7 +3775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:20">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4375,7 +3810,7 @@
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.1334697411457</v>
+        <v>22.133469741145699</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>65</v>
@@ -4401,8 +3836,11 @@
       <c r="T25" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:20">
+      <c r="U25" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4437,7 +3875,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>65</v>
@@ -4463,8 +3901,11 @@
       <c r="T26" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:20">
+      <c r="U26" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4526,7 +3967,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:20">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4588,7 +4029,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:20">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4623,13 +4064,13 @@
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.08061169164</v>
+        <v>25.080611691640001</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>133</v>
       </c>
       <c r="N29" s="16">
-        <v>121.391039</v>
+        <v>121.39103900000001</v>
       </c>
       <c r="O29" s="15">
         <v>25.083033</v>
@@ -4650,7 +4091,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:20">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4685,7 +4126,7 @@
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.9645079741834</v>
+        <v>23.964507974183402</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>65</v>
@@ -4712,7 +4153,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:20">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4744,10 +4185,10 @@
         <v>187</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016482</v>
+        <v>120.47220016481999</v>
       </c>
       <c r="L31" s="11">
-        <v>23.4778160137451</v>
+        <v>23.477816013745102</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>65</v>
@@ -4774,7 +4215,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -4809,7 +4250,7 @@
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>151</v>
@@ -4818,7 +4259,7 @@
         <v>121.199268</v>
       </c>
       <c r="O32" s="15">
-        <v>23.108855</v>
+        <v>23.108854999999998</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>65</v>
@@ -4835,8 +4276,11 @@
       <c r="T32" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4868,16 +4312,16 @@
         <v>192</v>
       </c>
       <c r="K33" s="11">
-        <v>121.675840396747</v>
+        <v>121.67584039674701</v>
       </c>
       <c r="L33" s="11">
-        <v>24.5908046853466</v>
+        <v>24.590804685346601</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>133</v>
       </c>
       <c r="N33" s="16">
-        <v>121.391039</v>
+        <v>121.39103900000001</v>
       </c>
       <c r="O33" s="15">
         <v>25.083033</v>
@@ -4898,7 +4342,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -4933,7 +4377,7 @@
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.0347553435176</v>
+        <v>25.034755343517599</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>65</v>
@@ -4959,8 +4403,11 @@
       <c r="T34" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -4995,7 +4442,7 @@
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.7204842189591</v>
+        <v>24.720484218959101</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>65</v>
@@ -5022,7 +4469,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -5057,7 +4504,7 @@
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911496</v>
+        <v>23.831319911495999</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>65</v>
@@ -5084,7 +4531,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" ht="18.5" spans="1:20">
+    <row r="37" spans="1:21" ht="20">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -5119,7 +4566,7 @@
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411</v>
+        <v>24.091411000000001</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>201</v>
@@ -5128,7 +4575,7 @@
         <v>120.67558</v>
       </c>
       <c r="O37" s="15">
-        <v>24.121393</v>
+        <v>24.121393000000001</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>65</v>
@@ -5146,7 +4593,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -5208,7 +4655,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" ht="18.5" spans="1:20">
+    <row r="39" spans="1:21" ht="20">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -5240,10 +4687,10 @@
         <v>205</v>
       </c>
       <c r="K39" s="11">
-        <v>121.006319901755</v>
+        <v>121.00631990175501</v>
       </c>
       <c r="L39" s="11">
-        <v>23.9781408122414</v>
+        <v>23.978140812241399</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>206</v>
@@ -5252,7 +4699,7 @@
         <v>120.56428</v>
       </c>
       <c r="O39" s="15">
-        <v>24.223341</v>
+        <v>24.223341000000001</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>65</v>
@@ -5270,7 +4717,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -5305,7 +4752,7 @@
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100578</v>
+        <v>23.100577999999999</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>65</v>
@@ -5332,7 +4779,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" ht="18.5" spans="1:20">
+    <row r="41" spans="1:21" ht="20">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -5367,7 +4814,7 @@
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.0866315</v>
+        <v>24.086631499999999</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>211</v>
@@ -5376,7 +4823,7 @@
         <v>120.666963</v>
       </c>
       <c r="O41" s="15">
-        <v>24.157351</v>
+        <v>24.157350999999998</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>65</v>
@@ -5394,7 +4841,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -5429,7 +4876,7 @@
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.1925474230372</v>
+        <v>24.192547423037201</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>65</v>
@@ -5457,8 +4904,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDB1A48-DB9B-9B41-82D2-DB85E9428BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15920" windowHeight="15480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18350" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -200,7 +194,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>or</t>
     </r>
@@ -244,7 +238,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>or</t>
     </r>
@@ -525,6 +519,9 @@
     <t>蟻巢存活約近一個月8/1-9/5，噴灑殺蟲劑滅除，墨綠色車子</t>
   </si>
   <si>
+    <t>Brood</t>
+  </si>
+  <si>
     <t>6:00</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
     <t>5/22-5/24每天都停放數小時，照片內蟻后和工蟻數量都很多</t>
   </si>
   <si>
+    <t>Queen</t>
+  </si>
+  <si>
     <t>台東下賓朗</t>
   </si>
   <si>
@@ -748,25 +748,21 @@
   </si>
   <si>
     <t>藍色，停路邊和地下室</t>
-  </si>
-  <si>
-    <t>Brood</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="27">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -776,18 +772,18 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="新細明體"/>
-      <family val="2"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -795,13 +791,13 @@
       <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -814,22 +810,152 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Wawati TC"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,8 +968,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -851,14 +1163,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
@@ -919,7 +1470,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -958,28 +1509,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1237,19 +1831,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
@@ -1274,7 +1868,7 @@
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19">
+    <row r="1" spans="1:20">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1368,10 +1962,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="6">
-        <v>120.99159899999999</v>
+        <v>120.991599</v>
       </c>
       <c r="L2" s="6">
-        <v>22.686783999999999</v>
+        <v>22.686784</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>27</v>
@@ -1380,7 +1974,7 @@
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="6">
-        <v>24.688740016228301</v>
+        <v>24.6887400162283</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1395,7 +1989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1427,7 +2021,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="6">
-        <v>120.79544199999999</v>
+        <v>120.795442</v>
       </c>
       <c r="L3" s="6">
         <v>23.775696</v>
@@ -1454,7 +2048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1486,10 +2080,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="6">
-        <v>120.55804000000001</v>
+        <v>120.55804</v>
       </c>
       <c r="L4" s="6">
-        <v>24.065370000000001</v>
+        <v>24.06537</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>38</v>
@@ -1513,7 +2107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:19">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1548,7 +2142,7 @@
         <v>120.702749</v>
       </c>
       <c r="L5" s="6">
-        <v>24.052188000000001</v>
+        <v>24.052188</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>44</v>
@@ -1572,7 +2166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:19">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1607,16 +2201,16 @@
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
-        <v>23.944749999999999</v>
+        <v>23.94475</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
-        <v>120.68288643502601</v>
+        <v>120.682886435026</v>
       </c>
       <c r="O6" s="6">
-        <v>24.184202070419602</v>
+        <v>24.1842020704196</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>45</v>
@@ -1631,7 +2225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:19">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1666,7 +2260,7 @@
         <v>120.952707</v>
       </c>
       <c r="L7" s="6">
-        <v>23.969025999999999</v>
+        <v>23.969026</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>56</v>
@@ -1675,7 +2269,7 @@
         <v>120.610146611658</v>
       </c>
       <c r="O7" s="6">
-        <v>23.970978461405601</v>
+        <v>23.9709784614056</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>45</v>
@@ -1690,7 +2284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:19">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1725,7 +2319,7 @@
         <v>121.003519</v>
       </c>
       <c r="L8" s="6">
-        <v>24.080279999999998</v>
+        <v>24.08028</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>61</v>
@@ -1734,7 +2328,7 @@
         <v>120.662462331881</v>
       </c>
       <c r="O8" s="6">
-        <v>24.121454603586599</v>
+        <v>24.1214546035866</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>45</v>
@@ -1749,7 +2343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:19">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1784,7 +2378,7 @@
         <v>120.800281</v>
       </c>
       <c r="L9" s="6">
-        <v>23.828551999999998</v>
+        <v>23.828552</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>65</v>
@@ -1808,7 +2402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:19">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1840,10 +2434,10 @@
         <v>71</v>
       </c>
       <c r="K10" s="6">
-        <v>120.77447789999999</v>
+        <v>120.7744779</v>
       </c>
       <c r="L10" s="6">
-        <v>23.749311599999999</v>
+        <v>23.7493116</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>65</v>
@@ -1867,7 +2461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:19">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1902,7 +2496,7 @@
         <v>121.3147845</v>
       </c>
       <c r="L11" s="6">
-        <v>24.990055399999999</v>
+        <v>24.9900554</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>80</v>
@@ -1911,7 +2505,7 @@
         <v>121.336737259589</v>
       </c>
       <c r="O11" s="6">
-        <v>24.998169671502001</v>
+        <v>24.998169671502</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>65</v>
@@ -1926,7 +2520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:19">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1958,10 +2552,10 @@
         <v>86</v>
       </c>
       <c r="K12" s="6">
-        <v>121.53639200000001</v>
+        <v>121.536392</v>
       </c>
       <c r="L12" s="6">
-        <v>25.006433000000001</v>
+        <v>25.006433</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>65</v>
@@ -1986,40 +2580,41 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
+    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
+    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
+    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
+    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
+    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
+    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
+    <hyperlink ref="S9" r:id="rId8" display="https://www.facebook.com/groups/577051257470900/permalink/653396816503010/"/>
+    <hyperlink ref="S10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
+    <hyperlink ref="S11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
+    <hyperlink ref="S12" r:id="rId11" display="https://www.facebook.com/groups/577051257470900/permalink/657758346066857/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
@@ -2027,7 +2622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2043,7 +2638,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2646,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2059,7 +2654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2118,7 +2713,7 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2135,7 +2730,7 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2143,7 +2738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="95">
+    <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="20" t="s">
         <v>110</v>
       </c>
@@ -2199,7 +2794,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="133">
+    <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="20" t="s">
         <v>112</v>
       </c>
@@ -2207,7 +2802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="38">
+    <row r="24" ht="35" spans="1:2">
       <c r="A24" s="20" t="s">
         <v>114</v>
       </c>
@@ -2215,7 +2810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="38">
+    <row r="25" ht="35" spans="1:2">
       <c r="A25" s="20" t="s">
         <v>116</v>
       </c>
@@ -2223,7 +2818,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38">
+    <row r="26" ht="35" spans="1:2">
       <c r="A26" s="20" t="s">
         <v>118</v>
       </c>
@@ -2232,21 +2827,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
@@ -2269,7 +2866,7 @@
     <col min="20" max="20" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:20">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2366,7 +2963,7 @@
         <v>121.005456279764</v>
       </c>
       <c r="L2" s="11">
-        <v>23.914709964417501</v>
+        <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>123</v>
@@ -2375,7 +2972,7 @@
         <v>120.493599095617</v>
       </c>
       <c r="O2" s="15">
-        <v>22.674433759837399</v>
+        <v>22.6744337598374</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>65</v>
@@ -2393,7 +2990,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2428,7 +3025,7 @@
         <v>121.014607681748</v>
       </c>
       <c r="L3" s="11">
-        <v>24.778101066117799</v>
+        <v>24.7781010661178</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>65</v>
@@ -2455,7 +3052,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2490,13 +3087,13 @@
         <v>120.561041585084</v>
       </c>
       <c r="L4" s="11">
-        <v>24.092992037001402</v>
+        <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>133</v>
       </c>
       <c r="N4" s="16">
-        <v>121.39103900000001</v>
+        <v>121.391039</v>
       </c>
       <c r="O4" s="15">
         <v>25.083033</v>
@@ -2517,7 +3114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:21">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2549,7 +3146,7 @@
         <v>138</v>
       </c>
       <c r="K5" s="11">
-        <v>121.61893499999999</v>
+        <v>121.618935</v>
       </c>
       <c r="L5" s="11">
         <v>25.044103</v>
@@ -2579,10 +3176,10 @@
         <v>125</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:20">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2590,10 +3187,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -2611,13 +3208,13 @@
         <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
       </c>
       <c r="L6" s="11">
-        <v>21.965779725065101</v>
+        <v>21.9657797250651</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>65</v>
@@ -2644,7 +3241,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:21">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2655,16 +3252,16 @@
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>77</v>
@@ -2673,13 +3270,13 @@
         <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K7" s="11">
-        <v>120.60299999999999</v>
+        <v>120.603</v>
       </c>
       <c r="L7" s="11">
-        <v>22.648666670000001</v>
+        <v>22.64866667</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>65</v>
@@ -2697,7 +3294,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>65</v>
@@ -2706,10 +3303,10 @@
         <v>125</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:20">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2720,7 +3317,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2738,10 +3335,10 @@
         <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K8" s="11">
-        <v>120.68601108017999</v>
+        <v>120.68601108018</v>
       </c>
       <c r="L8" s="11">
         <v>23.75684947021</v>
@@ -2771,7 +3368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:20">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2782,7 +3379,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -2800,13 +3397,13 @@
         <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
       </c>
       <c r="L9" s="11">
-        <v>23.949660221619499</v>
+        <v>23.9496602216195</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>65</v>
@@ -2833,7 +3430,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2862,22 +3459,22 @@
         <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
       </c>
       <c r="L10" s="11">
-        <v>23.835424433448502</v>
+        <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N10" s="16">
         <v>121.199268</v>
       </c>
       <c r="O10" s="15">
-        <v>23.108854999999998</v>
+        <v>23.108855</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>65</v>
@@ -2886,7 +3483,7 @@
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>65</v>
@@ -2895,7 +3492,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:20">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2924,10 +3521,10 @@
         <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K11" s="11">
-        <v>121.25946045140699</v>
+        <v>121.259460451407</v>
       </c>
       <c r="L11" s="11">
         <v>25.0180892884336</v>
@@ -2948,7 +3545,7 @@
         <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>65</v>
@@ -2957,7 +3554,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:21">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2968,7 +3565,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>84</v>
@@ -2986,13 +3583,13 @@
         <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L12" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>65</v>
@@ -3019,7 +3616,7 @@
         <v>125</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3051,13 +3648,13 @@
         <v>65</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L13" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>65</v>
@@ -3075,7 +3672,7 @@
         <v>65</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>65</v>
@@ -3084,7 +3681,7 @@
         <v>125</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3116,13 +3713,13 @@
         <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L14" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>65</v>
@@ -3140,7 +3737,7 @@
         <v>65</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>65</v>
@@ -3149,10 +3746,10 @@
         <v>125</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3181,13 +3778,13 @@
         <v>65</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L15" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>65</v>
@@ -3214,7 +3811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:20">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3243,13 +3840,13 @@
         <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
       </c>
       <c r="L16" s="11">
-        <v>22.801198384629199</v>
+        <v>22.8011983846292</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>65</v>
@@ -3267,7 +3864,7 @@
         <v>65</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>65</v>
@@ -3276,7 +3873,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:20">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3287,7 +3884,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3305,13 +3902,13 @@
         <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
       </c>
       <c r="L17" s="11">
-        <v>24.789420374676599</v>
+        <v>24.7894203746766</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>65</v>
@@ -3329,7 +3926,7 @@
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>65</v>
@@ -3338,7 +3935,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:21">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3352,13 +3949,13 @@
         <v>126</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
@@ -3367,13 +3964,13 @@
         <v>65</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
       </c>
       <c r="L18" s="11">
-        <v>24.574305559999999</v>
+        <v>24.57430556</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>65</v>
@@ -3391,7 +3988,7 @@
         <v>65</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>65</v>
@@ -3400,10 +3997,10 @@
         <v>125</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3411,16 +4008,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3432,13 +4029,13 @@
         <v>65</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
       </c>
       <c r="L19" s="11">
-        <v>24.274000000000001</v>
+        <v>24.274</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>65</v>
@@ -3456,7 +4053,7 @@
         <v>65</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>65</v>
@@ -3465,7 +4062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:20">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3479,13 +4076,13 @@
         <v>126</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
@@ -3494,13 +4091,13 @@
         <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
       </c>
       <c r="L20" s="11">
-        <v>24.944784561874201</v>
+        <v>24.9447845618742</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>65</v>
@@ -3518,7 +4115,7 @@
         <v>65</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>65</v>
@@ -3527,7 +4124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:20">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3556,7 +4153,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -3580,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>65</v>
@@ -3589,7 +4186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:20">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3618,13 +4215,13 @@
         <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
       </c>
       <c r="L22" s="11">
-        <v>23.864986432454302</v>
+        <v>23.8649864324543</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>65</v>
@@ -3651,7 +4248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:20">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3680,13 +4277,13 @@
         <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K23" s="11">
-        <v>120.68164345136501</v>
+        <v>120.681643451365</v>
       </c>
       <c r="L23" s="11">
-        <v>24.193368421839601</v>
+        <v>24.1933684218396</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>65</v>
@@ -3704,7 +4301,7 @@
         <v>65</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>65</v>
@@ -3713,7 +4310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:20">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3742,13 +4339,13 @@
         <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
       </c>
       <c r="L24" s="11">
-        <v>25.145835360983199</v>
+        <v>25.1458353609832</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>65</v>
@@ -3775,7 +4372,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" s="1" customFormat="1" spans="1:21">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3789,10 +4386,10 @@
         <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -3804,13 +4401,13 @@
         <v>65</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
       </c>
       <c r="L25" s="11">
-        <v>22.133469741145699</v>
+        <v>22.1334697411457</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>65</v>
@@ -3837,10 +4434,10 @@
         <v>125</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:21">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3869,13 +4466,13 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L26" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>65</v>
@@ -3893,7 +4490,7 @@
         <v>65</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>65</v>
@@ -3902,10 +4499,10 @@
         <v>125</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:20">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3919,10 +4516,10 @@
         <v>121</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -3934,7 +4531,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -3967,7 +4564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" s="1" customFormat="1" spans="1:20">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3975,16 +4572,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -3996,7 +4593,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -4029,7 +4626,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:20">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4040,7 +4637,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4058,19 +4655,19 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
       </c>
       <c r="L29" s="11">
-        <v>25.080611691640001</v>
+        <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>133</v>
       </c>
       <c r="N29" s="16">
-        <v>121.39103900000001</v>
+        <v>121.391039</v>
       </c>
       <c r="O29" s="15">
         <v>25.083033</v>
@@ -4082,7 +4679,7 @@
         <v>65</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>65</v>
@@ -4091,7 +4688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" s="1" customFormat="1" spans="1:20">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4102,7 +4699,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4120,13 +4717,13 @@
         <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
       </c>
       <c r="L30" s="11">
-        <v>23.964507974183402</v>
+        <v>23.9645079741834</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>65</v>
@@ -4144,7 +4741,7 @@
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>65</v>
@@ -4153,7 +4750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" s="1" customFormat="1" spans="1:20">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4182,13 +4779,13 @@
         <v>65</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K31" s="11">
-        <v>120.47220016481999</v>
+        <v>120.47220016482</v>
       </c>
       <c r="L31" s="11">
-        <v>23.477816013745102</v>
+        <v>23.4778160137451</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>65</v>
@@ -4206,7 +4803,7 @@
         <v>65</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>65</v>
@@ -4244,22 +4841,22 @@
         <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
       </c>
       <c r="L32" s="11">
-        <v>23.829187549321301</v>
+        <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N32" s="16">
         <v>121.199268</v>
       </c>
       <c r="O32" s="15">
-        <v>23.108854999999998</v>
+        <v>23.108855</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>65</v>
@@ -4268,7 +4865,7 @@
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>65</v>
@@ -4277,10 +4874,10 @@
         <v>125</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4294,10 +4891,10 @@
         <v>121</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4309,19 +4906,19 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K33" s="11">
-        <v>121.67584039674701</v>
+        <v>121.675840396747</v>
       </c>
       <c r="L33" s="11">
-        <v>24.590804685346601</v>
+        <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>133</v>
       </c>
       <c r="N33" s="16">
-        <v>121.39103900000001</v>
+        <v>121.391039</v>
       </c>
       <c r="O33" s="15">
         <v>25.083033</v>
@@ -4333,7 +4930,7 @@
         <v>65</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>65</v>
@@ -4356,10 +4953,10 @@
         <v>129</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -4371,13 +4968,13 @@
         <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
       </c>
       <c r="L34" s="11">
-        <v>25.034755343517599</v>
+        <v>25.0347553435176</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>65</v>
@@ -4395,7 +4992,7 @@
         <v>65</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>65</v>
@@ -4404,10 +5001,10 @@
         <v>125</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -4436,13 +5033,13 @@
         <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
       </c>
       <c r="L35" s="11">
-        <v>24.720484218959101</v>
+        <v>24.7204842189591</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>65</v>
@@ -4460,7 +5057,7 @@
         <v>65</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>65</v>
@@ -4469,7 +5066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:20">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -4498,13 +5095,13 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
       </c>
       <c r="L36" s="11">
-        <v>23.831319911495999</v>
+        <v>23.831319911496</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>65</v>
@@ -4522,7 +5119,7 @@
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>65</v>
@@ -4531,7 +5128,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="20">
+    <row r="37" ht="18.5" spans="1:20">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -4542,7 +5139,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -4560,22 +5157,22 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
       </c>
       <c r="L37" s="11">
-        <v>24.091411000000001</v>
+        <v>24.091411</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N37" s="15">
         <v>120.67558</v>
       </c>
       <c r="O37" s="15">
-        <v>24.121393000000001</v>
+        <v>24.121393</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>65</v>
@@ -4584,7 +5181,7 @@
         <v>65</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>65</v>
@@ -4593,7 +5190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:20">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -4622,7 +5219,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -4646,7 +5243,7 @@
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>65</v>
@@ -4655,7 +5252,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="20">
+    <row r="39" ht="18.5" spans="1:20">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -4684,22 +5281,22 @@
         <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K39" s="11">
-        <v>121.00631990175501</v>
+        <v>121.006319901755</v>
       </c>
       <c r="L39" s="11">
-        <v>23.978140812241399</v>
+        <v>23.9781408122414</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N39" s="16">
         <v>120.56428</v>
       </c>
       <c r="O39" s="15">
-        <v>24.223341000000001</v>
+        <v>24.223341</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>65</v>
@@ -4708,7 +5305,7 @@
         <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>65</v>
@@ -4717,7 +5314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:20">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -4728,7 +5325,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -4746,13 +5343,13 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
       </c>
       <c r="L40" s="11">
-        <v>23.100577999999999</v>
+        <v>23.100578</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>65</v>
@@ -4770,7 +5367,7 @@
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>65</v>
@@ -4779,7 +5376,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="20">
+    <row r="41" ht="18.5" spans="1:20">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -4790,7 +5387,7 @@
         <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -4808,22 +5405,22 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
       </c>
       <c r="L41" s="11">
-        <v>24.086631499999999</v>
+        <v>24.0866315</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N41" s="15">
         <v>120.666963</v>
       </c>
       <c r="O41" s="15">
-        <v>24.157350999999998</v>
+        <v>24.157351</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>65</v>
@@ -4832,7 +5429,7 @@
         <v>65</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>65</v>
@@ -4841,7 +5438,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:20">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -4870,13 +5467,13 @@
         <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
       </c>
       <c r="L42" s="11">
-        <v>24.192547423037201</v>
+        <v>24.1925474230372</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>65</v>
@@ -4894,7 +5491,7 @@
         <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>65</v>
@@ -4904,8 +5501,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_Full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_Full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -367,6 +367,21 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/657758346066857/</t>
   </si>
   <si>
+    <t>黑頭慌琉璃蟻</t>
+  </si>
+  <si>
+    <t>Tapinoma_melanocephalum</t>
+  </si>
+  <si>
+    <t>台大辛亥路教師宿舍停車場</t>
+  </si>
+  <si>
+    <t>無遮陰停車場之停車格內，無接觸任何大型枝條，但停車場地覆有雜草</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/reel/393908369918557</t>
+  </si>
+  <si>
     <t>Parking_duration</t>
   </si>
   <si>
@@ -395,12 +410,6 @@
   </si>
   <si>
     <t>A week</t>
-  </si>
-  <si>
-    <t>黑頭慌琉璃蟻</t>
-  </si>
-  <si>
-    <t>Tapinoma_melanocephalum</t>
   </si>
   <si>
     <t>彰化市台灣化纖外圍</t>
@@ -1377,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1444,12 +1453,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,6 +1490,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,18 +1814,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="23" customWidth="1"/>
     <col min="5" max="5" width="20.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
@@ -1833,8 +1839,8 @@
     <col min="15" max="15" width="13.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.0625" style="26" customWidth="1"/>
-    <col min="19" max="19" width="77.875" style="26" customWidth="1"/>
+    <col min="18" max="18" width="15.0625" style="24" customWidth="1"/>
+    <col min="19" max="19" width="77.875" style="24" customWidth="1"/>
     <col min="20" max="20" width="67.625" style="1" customWidth="1"/>
     <col min="21" max="21" width="21.75" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
@@ -1847,10 +1853,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1862,7 +1868,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1892,10 +1898,10 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="31" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -1912,10 +1918,10 @@
       <c r="B2" s="1">
         <v>20190517</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1933,7 +1939,7 @@
       <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="1">
@@ -1942,7 +1948,7 @@
       <c r="L2" s="1">
         <v>22.686784</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="30" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="1">
@@ -1957,13 +1963,13 @@
       <c r="Q2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1974,10 +1980,10 @@
       <c r="B3" s="1">
         <v>20230222</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2019,13 +2025,13 @@
       <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="32" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2036,10 +2042,10 @@
       <c r="B4" s="1">
         <v>20230524</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>31.5</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2066,13 +2072,13 @@
       <c r="L4" s="1">
         <v>24.06537</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="1">
         <v>120.557600375419</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="24">
         <v>24.0656320952287</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2081,13 +2087,13 @@
       <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="32" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2098,10 +2104,10 @@
       <c r="B5" s="1">
         <v>20230527</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>4.5</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2119,7 +2125,7 @@
       <c r="I5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="30" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="1">
@@ -2128,7 +2134,7 @@
       <c r="L5" s="1">
         <v>24.052188</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="30" t="s">
         <v>46</v>
       </c>
       <c r="N5" s="1">
@@ -2143,13 +2149,13 @@
       <c r="Q5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="32" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2160,10 +2166,10 @@
       <c r="B6" s="1">
         <v>20230702</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2181,16 +2187,16 @@
       <c r="I6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <v>120.97646</v>
       </c>
       <c r="L6" s="1">
         <v>23.94475</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="30" t="s">
         <v>53</v>
       </c>
       <c r="N6" s="1">
@@ -2205,13 +2211,13 @@
       <c r="Q6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="T6" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2222,10 +2228,10 @@
       <c r="B7" s="1">
         <v>20230704</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2243,7 +2249,7 @@
       <c r="I7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="30" t="s">
         <v>52</v>
       </c>
       <c r="K7" s="1">
@@ -2252,7 +2258,7 @@
       <c r="L7" s="1">
         <v>23.969026</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="24" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="1">
@@ -2267,13 +2273,13 @@
       <c r="Q7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="24" t="s">
         <v>31</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2284,10 +2290,10 @@
       <c r="B8" s="1">
         <v>20230723</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2305,7 +2311,7 @@
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="1">
@@ -2314,7 +2320,7 @@
       <c r="L8" s="1">
         <v>24.08028</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="30" t="s">
         <v>63</v>
       </c>
       <c r="N8" s="1">
@@ -2329,13 +2335,13 @@
       <c r="Q8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="T8" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2346,10 +2352,10 @@
       <c r="B9" s="1">
         <v>20230808</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2361,13 +2367,13 @@
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>66</v>
       </c>
       <c r="K9" s="1">
@@ -2376,28 +2382,28 @@
       <c r="L9" s="1">
         <v>23.828552</v>
       </c>
-      <c r="M9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="26" t="s">
+      <c r="M9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="34" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2408,10 +2414,10 @@
       <c r="B10" s="1">
         <v>20230810</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2423,13 +2429,13 @@
       <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>73</v>
       </c>
       <c r="K10" s="1">
@@ -2438,28 +2444,28 @@
       <c r="L10" s="1">
         <v>23.7493116</v>
       </c>
-      <c r="M10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="26" t="s">
+      <c r="M10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2470,13 +2476,13 @@
       <c r="B11" s="1">
         <v>20230807</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>72</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2491,7 +2497,7 @@
       <c r="I11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="30" t="s">
         <v>81</v>
       </c>
       <c r="K11" s="1">
@@ -2500,7 +2506,7 @@
       <c r="L11" s="1">
         <v>24.9900554</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="30" t="s">
         <v>82</v>
       </c>
       <c r="N11" s="1">
@@ -2515,13 +2521,13 @@
       <c r="Q11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="S11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2532,10 +2538,10 @@
       <c r="B12" s="1">
         <v>20230331</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="C12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="23">
         <v>72</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2553,7 +2559,7 @@
       <c r="I12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="30" t="s">
         <v>87</v>
       </c>
       <c r="K12" s="1">
@@ -2577,14 +2583,76 @@
       <c r="Q12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="T12" s="35" t="s">
+      <c r="T12" s="33" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20240312</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="23">
+        <v>720</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1">
+        <v>121.54419</v>
+      </c>
+      <c r="L13" s="1">
+        <v>25.01925</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2600,6 +2668,7 @@
     <hyperlink ref="T10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
     <hyperlink ref="T11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
     <hyperlink ref="T12" r:id="rId11" display="https://www.facebook.com/groups/577051257470900/permalink/657758346066857/"/>
+    <hyperlink ref="T13" r:id="rId12" display="https://www.facebook.com/reel/393908369918557"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2651,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -2716,7 +2785,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>22</v>
@@ -2734,7 +2803,7 @@
         <v>67</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K2" s="15">
         <v>121.005456279764</v>
@@ -2743,7 +2812,7 @@
         <v>23.9147099644175</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N2" s="19">
         <v>120.493599095617</v>
@@ -2757,17 +2826,17 @@
       <c r="Q2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2781,7 +2850,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>22</v>
@@ -2799,7 +2868,7 @@
         <v>67</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K3" s="15">
         <v>121.014607681748</v>
@@ -2822,17 +2891,17 @@
       <c r="Q3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2846,13 +2915,13 @@
         <v>67</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>24</v>
@@ -2864,7 +2933,7 @@
         <v>67</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K4" s="15">
         <v>120.561041585084</v>
@@ -2873,7 +2942,7 @@
         <v>24.0929920370014</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N4" s="20">
         <v>121.391039</v>
@@ -2887,17 +2956,17 @@
       <c r="Q4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T4" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:21">
@@ -2911,13 +2980,13 @@
         <v>67</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>24</v>
@@ -2926,10 +2995,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K5" s="15">
         <v>121.618935</v>
@@ -2952,17 +3021,17 @@
       <c r="Q5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:21">
@@ -2973,10 +3042,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>22</v>
@@ -2994,7 +3063,7 @@
         <v>67</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K6" s="15">
         <v>120.818153930452</v>
@@ -3017,7 +3086,7 @@
       <c r="Q6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="15" t="s">
@@ -3027,7 +3096,7 @@
         <v>67</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:21">
@@ -3041,16 +3110,16 @@
         <v>61</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>79</v>
@@ -3059,7 +3128,7 @@
         <v>67</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K7" s="15">
         <v>120.603</v>
@@ -3082,17 +3151,17 @@
       <c r="Q7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="15" t="s">
         <v>88</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T7" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:21">
@@ -3106,7 +3175,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>22</v>
@@ -3124,7 +3193,7 @@
         <v>67</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K8" s="15">
         <v>120.68601108018</v>
@@ -3147,7 +3216,7 @@
       <c r="Q8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="15" t="s">
@@ -3157,7 +3226,7 @@
         <v>67</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:21">
@@ -3171,7 +3240,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>22</v>
@@ -3189,7 +3258,7 @@
         <v>67</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K9" s="15">
         <v>120.927881600154</v>
@@ -3212,7 +3281,7 @@
       <c r="Q9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S9" s="15" t="s">
@@ -3222,7 +3291,7 @@
         <v>67</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3236,7 +3305,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>22</v>
@@ -3254,7 +3323,7 @@
         <v>67</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K10" s="15">
         <v>120.797623493674</v>
@@ -3263,7 +3332,7 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N10" s="20">
         <v>121.199268</v>
@@ -3277,17 +3346,17 @@
       <c r="Q10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="T10" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" spans="1:21">
@@ -3301,13 +3370,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>24</v>
@@ -3319,7 +3388,7 @@
         <v>67</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K11" s="15">
         <v>121.259460451407</v>
@@ -3342,17 +3411,17 @@
       <c r="Q11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" spans="1:21">
@@ -3366,7 +3435,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>85</v>
@@ -3384,7 +3453,7 @@
         <v>67</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K12" s="15">
         <v>120.989820923049</v>
@@ -3407,7 +3476,7 @@
       <c r="Q12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" s="15" t="s">
         <v>88</v>
       </c>
       <c r="S12" s="15" t="s">
@@ -3417,7 +3486,7 @@
         <v>67</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -3431,7 +3500,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>85</v>
@@ -3449,7 +3518,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K13" s="15">
         <v>120.989820923049</v>
@@ -3472,17 +3541,17 @@
       <c r="Q13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="15" t="s">
         <v>88</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="T13" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="V13" s="6"/>
     </row>
@@ -3497,7 +3566,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>22</v>
@@ -3515,7 +3584,7 @@
         <v>67</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K14" s="15">
         <v>120.800751607164</v>
@@ -3538,17 +3607,17 @@
       <c r="Q14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="23" t="s">
-        <v>129</v>
+      <c r="R14" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T14" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="V14" s="6"/>
     </row>
@@ -3563,7 +3632,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>22</v>
@@ -3581,7 +3650,7 @@
         <v>67</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K15" s="15">
         <v>120.989820923049</v>
@@ -3604,7 +3673,7 @@
       <c r="Q15" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="15" t="s">
@@ -3614,7 +3683,7 @@
         <v>67</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" spans="1:21">
@@ -3628,13 +3697,13 @@
         <v>67</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>24</v>
@@ -3646,7 +3715,7 @@
         <v>67</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K16" s="15">
         <v>121.094914364613</v>
@@ -3669,17 +3738,17 @@
       <c r="Q16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="T16" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" spans="1:21">
@@ -3693,7 +3762,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>22</v>
@@ -3711,7 +3780,7 @@
         <v>67</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K17" s="15">
         <v>120.989820923049</v>
@@ -3734,17 +3803,17 @@
       <c r="Q17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T17" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" spans="1:21">
@@ -3758,16 +3827,16 @@
         <v>67</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>25</v>
@@ -3776,7 +3845,7 @@
         <v>67</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K18" s="15">
         <v>120.75583333</v>
@@ -3799,17 +3868,17 @@
       <c r="Q18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R18" s="23" t="s">
+      <c r="R18" s="15" t="s">
         <v>88</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="T18" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3820,16 +3889,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>24</v>
@@ -3841,7 +3910,7 @@
         <v>67</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K19" s="15">
         <v>120.789</v>
@@ -3864,17 +3933,17 @@
       <c r="Q19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="T19" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:21">
@@ -3888,16 +3957,16 @@
         <v>67</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>25</v>
@@ -3906,7 +3975,7 @@
         <v>67</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="15">
         <v>121.213535993731</v>
@@ -3929,17 +3998,17 @@
       <c r="Q20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T20" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:21">
@@ -3953,7 +4022,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>22</v>
@@ -3971,7 +4040,7 @@
         <v>67</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K21" s="15">
         <v>120.615507980198</v>
@@ -3994,17 +4063,17 @@
       <c r="Q21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="T21" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -4018,7 +4087,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>22</v>
@@ -4036,7 +4105,7 @@
         <v>67</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K22" s="15">
         <v>120.90848777833</v>
@@ -4059,7 +4128,7 @@
       <c r="Q22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S22" s="15" t="s">
@@ -4069,7 +4138,7 @@
         <v>67</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -4101,7 +4170,7 @@
         <v>67</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K23" s="15">
         <v>120.681643451365</v>
@@ -4124,17 +4193,17 @@
       <c r="Q23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="T23" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -4148,7 +4217,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>85</v>
@@ -4166,7 +4235,7 @@
         <v>67</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K24" s="15">
         <v>121.470474592991</v>
@@ -4189,7 +4258,7 @@
       <c r="Q24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R24" s="23" t="s">
+      <c r="R24" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S24" s="15" t="s">
@@ -4199,7 +4268,7 @@
         <v>67</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" spans="1:21">
@@ -4213,13 +4282,13 @@
         <v>67</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>24</v>
@@ -4231,7 +4300,7 @@
         <v>67</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K25" s="15">
         <v>120.784057293861</v>
@@ -4254,7 +4323,7 @@
       <c r="Q25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" s="15" t="s">
         <v>88</v>
       </c>
       <c r="S25" s="15" t="s">
@@ -4264,7 +4333,7 @@
         <v>67</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:21">
@@ -4278,7 +4347,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>22</v>
@@ -4296,7 +4365,7 @@
         <v>44</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K26" s="15">
         <v>120.800751607164</v>
@@ -4319,17 +4388,17 @@
       <c r="Q26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="23" t="s">
-        <v>129</v>
+      <c r="R26" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="T26" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:21">
@@ -4343,13 +4412,13 @@
         <v>67</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>24</v>
@@ -4361,7 +4430,7 @@
         <v>67</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K27" s="15">
         <v>121.616350933956</v>
@@ -4384,7 +4453,7 @@
       <c r="Q27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R27" s="23" t="s">
+      <c r="R27" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S27" s="15" t="s">
@@ -4394,7 +4463,7 @@
         <v>67</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" s="6" customFormat="1" spans="1:21">
@@ -4405,16 +4474,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>24</v>
@@ -4426,7 +4495,7 @@
         <v>67</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K28" s="15">
         <v>120.524591618023</v>
@@ -4449,7 +4518,7 @@
       <c r="Q28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R28" s="23" t="s">
+      <c r="R28" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S28" s="15" t="s">
@@ -4459,7 +4528,7 @@
         <v>67</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" s="6" customFormat="1" spans="1:21">
@@ -4473,7 +4542,7 @@
         <v>67</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>22</v>
@@ -4491,7 +4560,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K29" s="15">
         <v>121.384302995593</v>
@@ -4500,7 +4569,7 @@
         <v>25.08061169164</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N29" s="20">
         <v>121.391039</v>
@@ -4514,17 +4583,17 @@
       <c r="Q29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R29" s="23" t="s">
+      <c r="R29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T29" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" s="6" customFormat="1" spans="1:21">
@@ -4538,7 +4607,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>22</v>
@@ -4556,7 +4625,7 @@
         <v>67</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K30" s="15">
         <v>120.945287778335</v>
@@ -4579,17 +4648,17 @@
       <c r="Q30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R30" s="23" t="s">
+      <c r="R30" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T30" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" s="6" customFormat="1" spans="1:21">
@@ -4603,7 +4672,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>85</v>
@@ -4621,7 +4690,7 @@
         <v>67</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K31" s="15">
         <v>120.47220016482</v>
@@ -4644,17 +4713,17 @@
       <c r="Q31" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R31" s="23" t="s">
+      <c r="R31" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="T31" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -4668,7 +4737,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>22</v>
@@ -4686,7 +4755,7 @@
         <v>67</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K32" s="15">
         <v>120.800751607164</v>
@@ -4695,7 +4764,7 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N32" s="20">
         <v>121.199268</v>
@@ -4709,17 +4778,17 @@
       <c r="Q32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R32" s="23" t="s">
-        <v>129</v>
+      <c r="R32" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="T32" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="V32" s="6"/>
     </row>
@@ -4734,13 +4803,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>24</v>
@@ -4752,7 +4821,7 @@
         <v>44</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K33" s="15">
         <v>121.675840396747</v>
@@ -4761,7 +4830,7 @@
         <v>24.5908046853466</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N33" s="20">
         <v>121.391039</v>
@@ -4775,17 +4844,17 @@
       <c r="Q33" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R33" s="23" t="s">
+      <c r="R33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="T33" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -4799,13 +4868,13 @@
         <v>67</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>24</v>
@@ -4817,7 +4886,7 @@
         <v>67</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K34" s="15">
         <v>121.385186825782</v>
@@ -4840,17 +4909,17 @@
       <c r="Q34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R34" s="23" t="s">
+      <c r="R34" s="15" t="s">
         <v>88</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T34" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="V34" s="6"/>
     </row>
@@ -4865,13 +4934,13 @@
         <v>67</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>24</v>
@@ -4883,7 +4952,7 @@
         <v>67</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K35" s="15">
         <v>120.924748380229</v>
@@ -4906,17 +4975,17 @@
       <c r="Q35" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R35" s="23" t="s">
+      <c r="R35" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T35" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U35" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -4930,7 +4999,7 @@
         <v>67</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>22</v>
@@ -4948,7 +5017,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K36" s="15">
         <v>120.79282235184</v>
@@ -4971,17 +5040,17 @@
       <c r="Q36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="23" t="s">
+      <c r="R36" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="T36" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" ht="18.5" spans="1:21">
@@ -4995,7 +5064,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>22</v>
@@ -5013,7 +5082,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K37" s="15">
         <v>121.03333872</v>
@@ -5022,7 +5091,7 @@
         <v>24.091411</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N37" s="19">
         <v>120.67558</v>
@@ -5036,17 +5105,17 @@
       <c r="Q37" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R37" s="23" t="s">
+      <c r="R37" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="T37" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U37" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -5060,7 +5129,7 @@
         <v>76</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>22</v>
@@ -5078,7 +5147,7 @@
         <v>26</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K38" s="15">
         <v>120.973170451356</v>
@@ -5101,17 +5170,17 @@
       <c r="Q38" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R38" s="23" t="s">
+      <c r="R38" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T38" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U38" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" ht="18.5" spans="1:21">
@@ -5125,7 +5194,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>22</v>
@@ -5143,7 +5212,7 @@
         <v>67</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K39" s="15">
         <v>121.006319901755</v>
@@ -5152,7 +5221,7 @@
         <v>23.9781408122414</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N39" s="20">
         <v>120.56428</v>
@@ -5166,17 +5235,17 @@
       <c r="Q39" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R39" s="23" t="s">
+      <c r="R39" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="T39" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U39" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -5190,7 +5259,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>22</v>
@@ -5208,7 +5277,7 @@
         <v>44</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K40" s="15">
         <v>121.269271</v>
@@ -5231,17 +5300,17 @@
       <c r="Q40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="23" t="s">
+      <c r="R40" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T40" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" ht="18.5" spans="1:21">
@@ -5255,7 +5324,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>22</v>
@@ -5273,7 +5342,7 @@
         <v>26</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K41" s="15">
         <v>121.0265923</v>
@@ -5282,7 +5351,7 @@
         <v>24.0866315</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N41" s="19">
         <v>120.666963</v>
@@ -5296,17 +5365,17 @@
       <c r="Q41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R41" s="23" t="s">
+      <c r="R41" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="T41" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U41" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -5320,13 +5389,13 @@
         <v>67</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>24</v>
@@ -5338,7 +5407,7 @@
         <v>72</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K42" s="15">
         <v>120.682093236019</v>
@@ -5361,17 +5430,17 @@
       <c r="Q42" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="23" t="s">
+      <c r="R42" s="15" t="s">
         <v>31</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T42" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U42" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5398,10 +5467,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5409,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5417,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5425,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5433,7 +5502,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5441,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5449,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5457,7 +5526,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5465,7 +5534,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5473,7 +5542,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -5482,7 +5551,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -5491,7 +5560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -5500,7 +5569,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5508,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -5517,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5525,7 +5594,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5533,7 +5602,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5541,7 +5610,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5549,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5557,7 +5626,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5565,7 +5634,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:2">
